--- a/temp_qc_domain_output.xlsx
+++ b/temp_qc_domain_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="462">
   <si>
     <t>Id</t>
   </si>
@@ -1213,22 +1213,19 @@
     <t>Match</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/normand-carter</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/pub/dir/Jenny/Steffens</t>
+    <t>https://www.linkedin.com/in/jsteffens13</t>
   </si>
   <si>
     <t>https://www.linkedin.com/pub/dir/Marc/Bourque</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/themelaniethomas</t>
+    <t>https://www.linkedin.com/company/veristart-technologies-inc/</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/jan-domokos-2151791</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/katekiely</t>
+    <t>https://www.linkedin.com/in/kate-kiely-92556841/</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/robin-kleinjans-mckee</t>
@@ -1240,10 +1237,10 @@
     <t>https://www.linkedin.com/in/kehoechris</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/brian-randall-8598b433</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/weiwuww</t>
+    <t>https://www.linkedin.com/in/brian-randall-584558261</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/wei-wu-55b35a35a</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/ericdodds</t>
@@ -1252,10 +1249,10 @@
     <t>https://www.linkedin.com/in/jamisieder</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/patrick-tynan-289b1a20</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/julia-moody-02bb76144</t>
+    <t>https://www.linkedin.com/in/ptynan</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/julia-moody-ed-m-a256438</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/adam-strouss-b8843ab2</t>
@@ -2191,7 +2188,7 @@
         <v>398</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>399</v>
+        <v>307</v>
       </c>
       <c r="CF2" t="s">
         <v>107</v>
@@ -2203,16 +2200,16 @@
         <v>292</v>
       </c>
       <c r="CI2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="CJ2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CK2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:90">
@@ -2355,7 +2352,7 @@
         <v>398</v>
       </c>
       <c r="CE3" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="CF3" t="s">
         <v>107</v>
@@ -2367,16 +2364,16 @@
         <v>292</v>
       </c>
       <c r="CI3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="CJ3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CK3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="CL3" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:90">
@@ -2519,7 +2516,7 @@
         <v>398</v>
       </c>
       <c r="CE4" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="CF4" t="s">
         <v>108</v>
@@ -2528,19 +2525,19 @@
         <v>293</v>
       </c>
       <c r="CH4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="CI4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="CJ4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CK4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="CL4" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:90">
@@ -2683,7 +2680,7 @@
         <v>398</v>
       </c>
       <c r="CE5" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="CF5" t="s">
         <v>109</v>
@@ -2695,16 +2692,16 @@
         <v>294</v>
       </c>
       <c r="CI5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="CJ5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CK5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="CL5" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:90">
@@ -2847,7 +2844,7 @@
         <v>398</v>
       </c>
       <c r="CE6" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="CF6" t="s">
         <v>110</v>
@@ -2859,16 +2856,16 @@
         <v>295</v>
       </c>
       <c r="CI6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="CJ6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="CK6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="CL6" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:90">
@@ -3011,7 +3008,7 @@
         <v>398</v>
       </c>
       <c r="CE7" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="CF7" t="s">
         <v>111</v>
@@ -3023,16 +3020,16 @@
         <v>296</v>
       </c>
       <c r="CI7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="CJ7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CK7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="CL7" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:90">
@@ -3175,7 +3172,7 @@
         <v>398</v>
       </c>
       <c r="CE8" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="CF8" t="s">
         <v>112</v>
@@ -3187,16 +3184,16 @@
         <v>297</v>
       </c>
       <c r="CI8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="CJ8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CK8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="CL8" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:90">
@@ -3339,7 +3336,7 @@
         <v>398</v>
       </c>
       <c r="CE9" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="CF9" t="s">
         <v>113</v>
@@ -3351,16 +3348,16 @@
         <v>298</v>
       </c>
       <c r="CI9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="CJ9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CK9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="CL9" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:90">
@@ -3500,7 +3497,7 @@
         <v>398</v>
       </c>
       <c r="CE10" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="CF10" t="s">
         <v>114</v>
@@ -3509,19 +3506,19 @@
         <v>299</v>
       </c>
       <c r="CH10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="CI10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="CJ10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CK10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="CL10" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:90">
@@ -3664,7 +3661,7 @@
         <v>398</v>
       </c>
       <c r="CE11" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="CF11" t="s">
         <v>115</v>
@@ -3676,16 +3673,16 @@
         <v>300</v>
       </c>
       <c r="CI11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="CJ11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CK11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="CL11" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:90">
@@ -3828,7 +3825,7 @@
         <v>398</v>
       </c>
       <c r="CE12" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="CF12" t="s">
         <v>116</v>
@@ -3840,16 +3837,16 @@
         <v>301</v>
       </c>
       <c r="CI12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="CJ12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CK12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="CL12" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:90">
@@ -3995,7 +3992,7 @@
         <v>398</v>
       </c>
       <c r="CE13" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="CF13" t="s">
         <v>117</v>
@@ -4007,16 +4004,16 @@
         <v>302</v>
       </c>
       <c r="CI13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="CJ13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="CK13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="CL13" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:90">
@@ -4159,7 +4156,7 @@
         <v>398</v>
       </c>
       <c r="CE14" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="CF14" t="s">
         <v>118</v>
@@ -4171,16 +4168,16 @@
         <v>303</v>
       </c>
       <c r="CI14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="CJ14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CK14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="CL14" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:90">
@@ -4323,7 +4320,7 @@
         <v>398</v>
       </c>
       <c r="CE15" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="CF15" t="s">
         <v>119</v>
@@ -4335,16 +4332,16 @@
         <v>304</v>
       </c>
       <c r="CI15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="CJ15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CK15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="CL15" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:90">
@@ -4487,7 +4484,7 @@
         <v>398</v>
       </c>
       <c r="CE16" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="CF16" t="s">
         <v>120</v>
@@ -4499,16 +4496,16 @@
         <v>305</v>
       </c>
       <c r="CI16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="CJ16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CK16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="CL16" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:90">
@@ -4651,7 +4648,7 @@
         <v>398</v>
       </c>
       <c r="CE17" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CF17" t="s">
         <v>121</v>
@@ -4663,16 +4660,16 @@
         <v>306</v>
       </c>
       <c r="CI17" t="s">
+        <v>429</v>
+      </c>
+      <c r="CJ17" t="s">
         <v>430</v>
       </c>
-      <c r="CJ17" t="s">
-        <v>431</v>
-      </c>
       <c r="CK17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="CL17" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/temp_qc_domain_output.xlsx
+++ b/temp_qc_domain_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="448">
   <si>
     <t>Id</t>
   </si>
@@ -640,6 +640,9 @@
     <t>270 E Kilbourn Ave</t>
   </si>
   <si>
+    <t>270 E Kilbourn Ave walter down town SE</t>
+  </si>
+  <si>
     <t>2000 Bd Lebourgneuf Bureau 400</t>
   </si>
   <si>
@@ -946,285 +949,264 @@
     <t>https://www.linkedin.com/in/jean-marc-bourque/</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/melanie-thomas-2a086b323/</t>
+    <t>https://www.linkedin.com/in/kehoechris/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/brian-randall-b24b64/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/wendyweiwu/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/eric-dodds-12367623/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jamisieder/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ptynan/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/julia-moody-508062207/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/adam-strouss-b8843ab2/</t>
+  </si>
+  <si>
+    <t>Global Guide to Hiring Contractors: EMEA</t>
+  </si>
+  <si>
+    <t>Global Guide to Hiring Independent Contractors: US and Canada</t>
+  </si>
+  <si>
+    <t>Your Global Growth Playbook: How to Build and Scale a Successful Remote-First Company</t>
+  </si>
+  <si>
+    <t>Build your international teams quickly and easily with G-P</t>
+  </si>
+  <si>
+    <t>Compliance Workbook for Global Hiring</t>
+  </si>
+  <si>
+    <t>Global Hiring Guide for Startups</t>
+  </si>
+  <si>
+    <t>Compliance Playbook: How to Improve Global Speed-to-Hire</t>
+  </si>
+  <si>
+    <t>7 Compliance Challenges Companies Face When Growing Globally</t>
+  </si>
+  <si>
+    <t>AI at Work: Unlocking Global Opportunities</t>
+  </si>
+  <si>
+    <t>The Complete Guide to International Worker Classification</t>
+  </si>
+  <si>
+    <t>09-04-2025 12:56</t>
+  </si>
+  <si>
+    <t>09-04-2025 14:24</t>
+  </si>
+  <si>
+    <t>09-04-2025 14:11</t>
+  </si>
+  <si>
+    <t>09-09-2025 10:34</t>
+  </si>
+  <si>
+    <t>09-09-2025 14:44</t>
+  </si>
+  <si>
+    <t>09-09-2025 12:57</t>
+  </si>
+  <si>
+    <t>09-09-2025 09:01</t>
+  </si>
+  <si>
+    <t>09-04-2025 09:29</t>
+  </si>
+  <si>
+    <t>09-09-2025 11:26</t>
+  </si>
+  <si>
+    <t>09-09-2025 14:02</t>
+  </si>
+  <si>
+    <t>09-09-2025 11:02</t>
+  </si>
+  <si>
+    <t>09-09-2025 16:39</t>
+  </si>
+  <si>
+    <t>09-09-2025 15:24</t>
+  </si>
+  <si>
+    <t>09-09-2025 09:25</t>
+  </si>
+  <si>
+    <t>09-09-2025 14:09</t>
+  </si>
+  <si>
+    <t>09-09-2025 10:05</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Personnel Hr Management</t>
+  </si>
+  <si>
+    <t>Recruiting Career Management</t>
+  </si>
+  <si>
+    <t>Workforce Planning &amp; Analytics Conference</t>
+  </si>
+  <si>
+    <t>Human Capital Management</t>
+  </si>
+  <si>
+    <t>Global Employment Law</t>
+  </si>
+  <si>
+    <t>Human Resource Management</t>
+  </si>
+  <si>
+    <t>Professional Employer Organization</t>
+  </si>
+  <si>
+    <t>Human Resource Information Systems</t>
+  </si>
+  <si>
+    <t>Contingent Staffing / Employment Agencies</t>
+  </si>
+  <si>
+    <t>Contingent Staffing</t>
+  </si>
+  <si>
+    <t>Employment Services</t>
+  </si>
+  <si>
+    <t>No ABM</t>
+  </si>
+  <si>
+    <t>25Q1_NA_ALL_ALL_Growth_Anteriad-1Touch_ContentSyndication</t>
+  </si>
+  <si>
+    <t>Content Syndication</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>TMA Code</t>
+  </si>
+  <si>
+    <t>DRO</t>
+  </si>
+  <si>
+    <t>True Influence</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Lookback</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>ESP Verified</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>09-06-2025 11:55</t>
+  </si>
+  <si>
+    <t>09-10-2025 16:18</t>
+  </si>
+  <si>
+    <t>09-10-2025 16:15</t>
+  </si>
+  <si>
+    <t>09-10-2025 10:40</t>
+  </si>
+  <si>
+    <t>40.77.20.86</t>
+  </si>
+  <si>
+    <t>3.97.109.18</t>
+  </si>
+  <si>
+    <t>142.176.48.89</t>
+  </si>
+  <si>
+    <t>54.193.45.204</t>
+  </si>
+  <si>
+    <t>141.193.213.21</t>
+  </si>
+  <si>
+    <t>23.185.0.2</t>
+  </si>
+  <si>
+    <t>141.193.213.10</t>
+  </si>
+  <si>
+    <t>141.193.213.11</t>
+  </si>
+  <si>
+    <t>159.89.244.219</t>
+  </si>
+  <si>
+    <t>107.22.29.183</t>
+  </si>
+  <si>
+    <t>66.33.22.28</t>
+  </si>
+  <si>
+    <t>76.76.21.21</t>
+  </si>
+  <si>
+    <t>Receptionist</t>
+  </si>
+  <si>
+    <t>Company details updated on 2024-06-19 , Title verified on 2024-10-27</t>
+  </si>
+  <si>
+    <t>So Valid Lead</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>2578l9i</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>https://ca.linkedin.com/in/melanie-thomas-2a086b323</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/jan-domokos-2151791/</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/kate-kiely-4b929010/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/robin-kleinjans-mckee/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/staci-olmstead-992b0339/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/kehoechris/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/brian-randall-b24b64/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/wendyweiwu/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/eric-dodds-12367623/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/jamisieder/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ptynan/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/julia-moody-508062207/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/adam-strouss-b8843ab2/</t>
-  </si>
-  <si>
-    <t>Global Guide to Hiring Contractors: EMEA</t>
-  </si>
-  <si>
-    <t>Global Guide to Hiring Independent Contractors: US and Canada</t>
-  </si>
-  <si>
-    <t>Your Global Growth Playbook: How to Build and Scale a Successful Remote-First Company</t>
-  </si>
-  <si>
-    <t>Build your international teams quickly and easily with G-P</t>
-  </si>
-  <si>
-    <t>Compliance Workbook for Global Hiring</t>
-  </si>
-  <si>
-    <t>Global Hiring Guide for Startups</t>
-  </si>
-  <si>
-    <t>Compliance Playbook: How to Improve Global Speed-to-Hire</t>
-  </si>
-  <si>
-    <t>7 Compliance Challenges Companies Face When Growing Globally</t>
-  </si>
-  <si>
-    <t>AI at Work: Unlocking Global Opportunities</t>
-  </si>
-  <si>
-    <t>The Complete Guide to International Worker Classification</t>
-  </si>
-  <si>
-    <t>09-04-2025 12:56</t>
-  </si>
-  <si>
-    <t>09-04-2025 14:24</t>
-  </si>
-  <si>
-    <t>09-04-2025 14:11</t>
-  </si>
-  <si>
-    <t>09-09-2025 10:34</t>
-  </si>
-  <si>
-    <t>09-09-2025 14:44</t>
-  </si>
-  <si>
-    <t>09-09-2025 12:57</t>
-  </si>
-  <si>
-    <t>09-09-2025 09:01</t>
-  </si>
-  <si>
-    <t>09-04-2025 09:29</t>
-  </si>
-  <si>
-    <t>09-09-2025 11:26</t>
-  </si>
-  <si>
-    <t>09-09-2025 14:02</t>
-  </si>
-  <si>
-    <t>09-09-2025 11:02</t>
-  </si>
-  <si>
-    <t>09-09-2025 16:39</t>
-  </si>
-  <si>
-    <t>09-09-2025 15:24</t>
-  </si>
-  <si>
-    <t>09-09-2025 09:25</t>
-  </si>
-  <si>
-    <t>09-09-2025 14:09</t>
-  </si>
-  <si>
-    <t>09-09-2025 10:05</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Valid</t>
-  </si>
-  <si>
-    <t>Invalid</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Personnel Hr Management</t>
-  </si>
-  <si>
-    <t>Recruiting Career Management</t>
-  </si>
-  <si>
-    <t>Workforce Planning &amp; Analytics Conference</t>
-  </si>
-  <si>
-    <t>Human Capital Management</t>
-  </si>
-  <si>
-    <t>Global Employment Law</t>
-  </si>
-  <si>
-    <t>Human Resource Management</t>
-  </si>
-  <si>
-    <t>Professional Employer Organization</t>
-  </si>
-  <si>
-    <t>Human Resource Information Systems</t>
-  </si>
-  <si>
-    <t>Contingent Staffing / Employment Agencies</t>
-  </si>
-  <si>
-    <t>Contingent Staffing</t>
-  </si>
-  <si>
-    <t>Employment Services</t>
-  </si>
-  <si>
-    <t>No ABM</t>
-  </si>
-  <si>
-    <t>25Q1_NA_ALL_ALL_Growth_Anteriad-1Touch_ContentSyndication</t>
-  </si>
-  <si>
-    <t>Content Syndication</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>TMA Code</t>
-  </si>
-  <si>
-    <t>DRO</t>
-  </si>
-  <si>
-    <t>True Influence</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>Lookback</t>
-  </si>
-  <si>
-    <t>valid</t>
-  </si>
-  <si>
-    <t>ESP Verified</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>09-06-2025 11:55</t>
-  </si>
-  <si>
-    <t>09-10-2025 16:18</t>
-  </si>
-  <si>
-    <t>09-10-2025 16:15</t>
-  </si>
-  <si>
-    <t>09-10-2025 10:40</t>
-  </si>
-  <si>
-    <t>40.77.20.86</t>
-  </si>
-  <si>
-    <t>3.97.109.18</t>
-  </si>
-  <si>
-    <t>142.176.48.89</t>
-  </si>
-  <si>
-    <t>54.193.45.204</t>
-  </si>
-  <si>
-    <t>141.193.213.21</t>
-  </si>
-  <si>
-    <t>23.185.0.2</t>
-  </si>
-  <si>
-    <t>141.193.213.10</t>
-  </si>
-  <si>
-    <t>141.193.213.11</t>
-  </si>
-  <si>
-    <t>159.89.244.219</t>
-  </si>
-  <si>
-    <t>107.22.29.183</t>
-  </si>
-  <si>
-    <t>66.33.22.28</t>
-  </si>
-  <si>
-    <t>76.76.21.21</t>
-  </si>
-  <si>
-    <t>Receptionist</t>
-  </si>
-  <si>
-    <t>Company details updated on 2024-06-19 , Title verified on 2024-10-27</t>
-  </si>
-  <si>
-    <t>So Valid Lead</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>2578l9i</t>
-  </si>
-  <si>
-    <t>Match</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/normand-carter</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ziqin-han-8b98675</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/in/jean-marc-bourque/en</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/in/melanie-thomas-2a086b323</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/kate-kiely-4b929010</t>
   </si>
   <si>
@@ -1232,21 +1214,6 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/staci-olmstead-992b0339</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/brian-randall-b24b64</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/wendyweiwu</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/jamisieder</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ptynan</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/adam-strouss-b8843ab2</t>
   </si>
   <si>
     <t>promutuelassurance.ca</t>
@@ -2080,127 +2047,127 @@
         <v>207</v>
       </c>
       <c r="O2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AB2" t="s">
         <v>186</v>
       </c>
       <c r="AC2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AJ2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AK2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AN2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AU2" t="s">
         <v>349</v>
       </c>
-      <c r="AP2" t="s">
-        <v>350</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>352</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>353</v>
-      </c>
       <c r="AW2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AX2" t="s">
+        <v>360</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>361</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>362</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>363</v>
+      </c>
+      <c r="BN2" t="s">
         <v>364</v>
       </c>
-      <c r="BB2" t="s">
-        <v>365</v>
-      </c>
-      <c r="BC2" t="s">
+      <c r="BO2" t="s">
         <v>366</v>
       </c>
-      <c r="BD2" t="s">
-        <v>367</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>368</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>370</v>
-      </c>
       <c r="BP2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="BQ2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BT2" t="s">
         <v>206</v>
       </c>
       <c r="BU2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="BV2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BZ2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="CB2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>399</v>
+        <v>308</v>
       </c>
       <c r="CF2" t="s">
         <v>107</v>
       </c>
       <c r="CG2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="CH2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="CI2" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="CJ2" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="CK2" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:90">
@@ -2241,130 +2208,130 @@
         <v>206</v>
       </c>
       <c r="N3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AB3" t="s">
         <v>186</v>
       </c>
       <c r="AC3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AJ3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AK3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AN3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AP3" t="s">
+        <v>346</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>348</v>
+      </c>
+      <c r="AU3" t="s">
         <v>350</v>
       </c>
-      <c r="AS3" t="s">
-        <v>352</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>354</v>
-      </c>
       <c r="AW3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AX3" t="s">
+        <v>360</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>361</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>362</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>363</v>
+      </c>
+      <c r="BN3" t="s">
         <v>364</v>
       </c>
-      <c r="BB3" t="s">
-        <v>365</v>
-      </c>
-      <c r="BC3" t="s">
+      <c r="BO3" t="s">
         <v>366</v>
       </c>
-      <c r="BD3" t="s">
-        <v>367</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>368</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>370</v>
-      </c>
       <c r="BP3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="BQ3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BT3" t="s">
         <v>206</v>
       </c>
       <c r="BU3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="BV3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BZ3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="CB3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="CE3" s="2" t="s">
-        <v>400</v>
+        <v>309</v>
       </c>
       <c r="CF3" t="s">
         <v>107</v>
       </c>
       <c r="CG3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="CH3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="CI3" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="CJ3" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="CK3" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="CL3" s="2" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:90">
@@ -2405,130 +2372,130 @@
         <v>206</v>
       </c>
       <c r="N4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="R4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AB4" t="s">
         <v>186</v>
       </c>
       <c r="AC4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AJ4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AK4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AN4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AP4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AS4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AU4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AV4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AX4" t="s">
+        <v>360</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>361</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>362</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>363</v>
+      </c>
+      <c r="BN4" t="s">
         <v>364</v>
       </c>
-      <c r="BB4" t="s">
-        <v>365</v>
-      </c>
-      <c r="BC4" t="s">
+      <c r="BO4" t="s">
         <v>366</v>
       </c>
-      <c r="BD4" t="s">
-        <v>367</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>368</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>370</v>
-      </c>
       <c r="BP4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="BQ4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BT4" t="s">
         <v>206</v>
       </c>
       <c r="BU4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="BV4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BZ4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="CB4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="CE4" s="2" t="s">
-        <v>401</v>
+        <v>310</v>
       </c>
       <c r="CF4" t="s">
         <v>108</v>
       </c>
       <c r="CG4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="CH4" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="CI4" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="CJ4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="CK4" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="CL4" s="2" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:90">
@@ -2572,127 +2539,124 @@
         <v>206</v>
       </c>
       <c r="N5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AB5" t="s">
         <v>186</v>
       </c>
       <c r="AC5" t="s">
-        <v>294</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="AJ5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AK5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AN5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AP5" t="s">
+        <v>346</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>348</v>
+      </c>
+      <c r="AU5" t="s">
         <v>350</v>
       </c>
-      <c r="AS5" t="s">
-        <v>352</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>354</v>
-      </c>
       <c r="AV5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AX5" t="s">
+        <v>360</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>361</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>362</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>363</v>
+      </c>
+      <c r="BN5" t="s">
         <v>364</v>
       </c>
-      <c r="BB5" t="s">
-        <v>365</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>366</v>
-      </c>
-      <c r="BD5" t="s">
+      <c r="BO5" t="s">
         <v>367</v>
       </c>
-      <c r="BN5" t="s">
-        <v>368</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>371</v>
-      </c>
       <c r="BP5" t="s">
+        <v>369</v>
+      </c>
+      <c r="BQ5" t="s">
         <v>373</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>377</v>
       </c>
       <c r="BT5" t="s">
         <v>206</v>
       </c>
       <c r="BU5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="BX5" t="s">
+        <v>390</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>391</v>
+      </c>
+      <c r="CB5" t="s">
         <v>394</v>
       </c>
-      <c r="BZ5" t="s">
+      <c r="CE5" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>398</v>
-      </c>
-      <c r="CE5" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="CF5" t="s">
         <v>109</v>
       </c>
       <c r="CG5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="CH5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="CI5" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="CJ5" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="CK5" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="CL5" s="2" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:90">
@@ -2736,127 +2700,124 @@
         <v>206</v>
       </c>
       <c r="N6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AB6" t="s">
         <v>186</v>
       </c>
       <c r="AC6" t="s">
-        <v>295</v>
-      </c>
-      <c r="AH6" s="2" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="AJ6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AK6" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AN6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AP6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AS6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AU6" t="s">
         <v>352</v>
       </c>
-      <c r="AU6" t="s">
-        <v>356</v>
-      </c>
       <c r="AW6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AX6" t="s">
+        <v>360</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>361</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>362</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>363</v>
+      </c>
+      <c r="BN6" t="s">
         <v>364</v>
       </c>
-      <c r="BB6" t="s">
-        <v>365</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>366</v>
-      </c>
-      <c r="BD6" t="s">
+      <c r="BO6" t="s">
         <v>367</v>
       </c>
-      <c r="BN6" t="s">
-        <v>368</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>371</v>
-      </c>
       <c r="BP6" t="s">
+        <v>369</v>
+      </c>
+      <c r="BQ6" t="s">
         <v>373</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>377</v>
       </c>
       <c r="BT6" t="s">
         <v>206</v>
       </c>
       <c r="BU6" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="BX6" t="s">
+        <v>390</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>391</v>
+      </c>
+      <c r="CB6" t="s">
         <v>394</v>
       </c>
-      <c r="BZ6" t="s">
-        <v>395</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>398</v>
-      </c>
       <c r="CE6" s="2" t="s">
-        <v>311</v>
+        <v>396</v>
       </c>
       <c r="CF6" t="s">
         <v>110</v>
       </c>
       <c r="CG6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="CH6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="CI6" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="CJ6" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="CK6" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="CL6" s="2" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:90">
@@ -2900,127 +2861,124 @@
         <v>206</v>
       </c>
       <c r="N7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AB7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AC7" t="s">
-        <v>296</v>
-      </c>
-      <c r="AH7" s="2" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="AJ7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AK7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AN7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AP7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AS7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AU7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AW7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AX7" t="s">
+        <v>360</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>361</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>362</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>363</v>
+      </c>
+      <c r="BN7" t="s">
         <v>364</v>
       </c>
-      <c r="BB7" t="s">
-        <v>365</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>366</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>367</v>
-      </c>
-      <c r="BN7" t="s">
+      <c r="BO7" t="s">
         <v>368</v>
       </c>
-      <c r="BO7" t="s">
-        <v>372</v>
-      </c>
       <c r="BP7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="BQ7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="BT7" t="s">
         <v>206</v>
       </c>
       <c r="BU7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="BZ7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="CB7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="CE7" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="CF7" t="s">
         <v>111</v>
       </c>
       <c r="CG7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="CH7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="CI7" t="s">
+        <v>405</v>
+      </c>
+      <c r="CJ7" t="s">
         <v>416</v>
       </c>
-      <c r="CJ7" t="s">
-        <v>427</v>
-      </c>
       <c r="CK7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="CL7" s="2" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:90">
@@ -3064,127 +3022,124 @@
         <v>206</v>
       </c>
       <c r="N8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AB8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AC8" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="AJ8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AK8" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AN8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AP8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AS8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AU8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AW8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AX8" t="s">
+        <v>360</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>361</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>362</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>363</v>
+      </c>
+      <c r="BN8" t="s">
         <v>364</v>
       </c>
-      <c r="BB8" t="s">
-        <v>365</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>366</v>
-      </c>
-      <c r="BD8" t="s">
+      <c r="BO8" t="s">
         <v>367</v>
       </c>
-      <c r="BN8" t="s">
-        <v>368</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>371</v>
-      </c>
       <c r="BP8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="BQ8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="BT8" t="s">
         <v>206</v>
       </c>
       <c r="BU8" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="BX8" t="s">
+        <v>390</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>391</v>
+      </c>
+      <c r="CB8" t="s">
         <v>394</v>
       </c>
-      <c r="BZ8" t="s">
-        <v>395</v>
-      </c>
-      <c r="CB8" t="s">
+      <c r="CE8" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="CE8" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="CF8" t="s">
         <v>112</v>
       </c>
       <c r="CG8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="CH8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="CI8" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="CJ8" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="CK8" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="CL8" s="2" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:90">
@@ -3225,130 +3180,127 @@
         <v>206</v>
       </c>
       <c r="N9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AB9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AC9" t="s">
-        <v>298</v>
-      </c>
-      <c r="AH9" s="2" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="AJ9" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AK9" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AN9" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AP9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AS9" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AU9" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AW9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AX9" t="s">
+        <v>360</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>361</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>362</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>363</v>
+      </c>
+      <c r="BN9" t="s">
         <v>364</v>
       </c>
-      <c r="BB9" t="s">
-        <v>365</v>
-      </c>
-      <c r="BC9" t="s">
+      <c r="BO9" t="s">
         <v>366</v>
       </c>
-      <c r="BD9" t="s">
-        <v>367</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>368</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>370</v>
-      </c>
       <c r="BP9" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="BQ9" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BT9" t="s">
         <v>206</v>
       </c>
       <c r="BU9" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="BV9" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BZ9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="CB9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="CE9" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="CF9" t="s">
         <v>113</v>
       </c>
       <c r="CG9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="CH9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="CI9" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="CJ9" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="CK9" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="CL9" s="2" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:90">
@@ -3386,130 +3338,130 @@
         <v>198</v>
       </c>
       <c r="N10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="R10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AA10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AB10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AC10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AJ10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AK10" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AN10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AP10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AS10" t="s">
+        <v>348</v>
+      </c>
+      <c r="AU10" t="s">
         <v>352</v>
       </c>
-      <c r="AU10" t="s">
-        <v>356</v>
-      </c>
       <c r="AW10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AX10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="BB10" t="s">
+        <v>361</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>362</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>363</v>
+      </c>
+      <c r="BN10" t="s">
         <v>365</v>
       </c>
-      <c r="BC10" t="s">
-        <v>366</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>367</v>
-      </c>
-      <c r="BN10" t="s">
-        <v>369</v>
-      </c>
       <c r="BO10" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="BP10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="BQ10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="BT10" t="s">
         <v>206</v>
       </c>
       <c r="BV10" t="s">
+        <v>389</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>392</v>
+      </c>
+      <c r="CA10" t="s">
         <v>393</v>
       </c>
-      <c r="BZ10" t="s">
-        <v>396</v>
-      </c>
-      <c r="CA10" t="s">
-        <v>397</v>
-      </c>
       <c r="CB10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="CE10" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="CF10" t="s">
         <v>114</v>
       </c>
       <c r="CG10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="CH10" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="CI10" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="CJ10" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="CK10" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="CL10" s="2" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:90">
@@ -3553,127 +3505,127 @@
         <v>206</v>
       </c>
       <c r="N11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AB11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AC11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AJ11" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AK11" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AN11" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AP11" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AS11" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AU11" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AW11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AX11" t="s">
+        <v>360</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>361</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>362</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>363</v>
+      </c>
+      <c r="BN11" t="s">
         <v>364</v>
       </c>
-      <c r="BB11" t="s">
-        <v>365</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>366</v>
-      </c>
-      <c r="BD11" t="s">
+      <c r="BO11" t="s">
         <v>367</v>
       </c>
-      <c r="BN11" t="s">
-        <v>368</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>371</v>
-      </c>
       <c r="BP11" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="BQ11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="BT11" t="s">
         <v>206</v>
       </c>
       <c r="BU11" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="BX11" t="s">
+        <v>390</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>391</v>
+      </c>
+      <c r="CB11" t="s">
         <v>394</v>
       </c>
-      <c r="BZ11" t="s">
-        <v>395</v>
-      </c>
-      <c r="CB11" t="s">
-        <v>398</v>
-      </c>
       <c r="CE11" s="2" t="s">
-        <v>406</v>
+        <v>312</v>
       </c>
       <c r="CF11" t="s">
         <v>115</v>
       </c>
       <c r="CG11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="CH11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="CI11" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="CJ11" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="CK11" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="CL11" s="2" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:90">
@@ -3717,127 +3669,127 @@
         <v>206</v>
       </c>
       <c r="N12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="R12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AB12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AC12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AJ12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AK12" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AN12" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AP12" t="s">
+        <v>346</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>348</v>
+      </c>
+      <c r="AU12" t="s">
         <v>350</v>
       </c>
-      <c r="AS12" t="s">
-        <v>352</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>354</v>
-      </c>
       <c r="AW12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AX12" t="s">
+        <v>360</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>361</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>362</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>363</v>
+      </c>
+      <c r="BN12" t="s">
         <v>364</v>
       </c>
-      <c r="BB12" t="s">
-        <v>365</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>366</v>
-      </c>
-      <c r="BD12" t="s">
+      <c r="BO12" t="s">
         <v>367</v>
       </c>
-      <c r="BN12" t="s">
-        <v>368</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>371</v>
-      </c>
       <c r="BP12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="BQ12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="BT12" t="s">
         <v>206</v>
       </c>
       <c r="BU12" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="BX12" t="s">
+        <v>390</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>391</v>
+      </c>
+      <c r="CB12" t="s">
         <v>394</v>
       </c>
-      <c r="BZ12" t="s">
-        <v>395</v>
-      </c>
-      <c r="CB12" t="s">
-        <v>398</v>
-      </c>
       <c r="CE12" s="2" t="s">
-        <v>407</v>
+        <v>313</v>
       </c>
       <c r="CF12" t="s">
         <v>116</v>
       </c>
       <c r="CG12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="CH12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="CI12" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="CJ12" t="s">
+        <v>416</v>
+      </c>
+      <c r="CK12" t="s">
         <v>427</v>
       </c>
-      <c r="CK12" t="s">
-        <v>438</v>
-      </c>
       <c r="CL12" s="2" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:90">
@@ -3881,127 +3833,130 @@
         <v>206</v>
       </c>
       <c r="N13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AB13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AC13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AJ13" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AK13" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AN13" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AP13" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AQ13" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AS13" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AU13" t="s">
+        <v>356</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX13" t="s">
         <v>360</v>
       </c>
-      <c r="AW13" t="s">
-        <v>244</v>
-      </c>
-      <c r="AX13" t="s">
+      <c r="BB13" t="s">
+        <v>361</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>362</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>363</v>
+      </c>
+      <c r="BN13" t="s">
         <v>364</v>
       </c>
-      <c r="BB13" t="s">
-        <v>365</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>366</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>367</v>
-      </c>
-      <c r="BN13" t="s">
+      <c r="BO13" t="s">
         <v>368</v>
       </c>
-      <c r="BO13" t="s">
-        <v>372</v>
-      </c>
       <c r="BP13" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="BQ13" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="BT13" t="s">
         <v>206</v>
       </c>
       <c r="BU13" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="BZ13" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="CB13" t="s">
-        <v>398</v>
+        <v>394</v>
+      </c>
+      <c r="CE13" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="CF13" t="s">
         <v>117</v>
       </c>
       <c r="CG13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="CH13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="CI13" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="CJ13" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="CK13" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="CL13" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:90">
@@ -4045,127 +4000,127 @@
         <v>206</v>
       </c>
       <c r="N14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AB14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AC14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AJ14" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AK14" t="s">
+        <v>341</v>
+      </c>
+      <c r="AN14" t="s">
         <v>345</v>
       </c>
-      <c r="AN14" t="s">
-        <v>349</v>
-      </c>
       <c r="AP14" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AS14" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AU14" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AW14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AX14" t="s">
+        <v>360</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>361</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>362</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>363</v>
+      </c>
+      <c r="BN14" t="s">
         <v>364</v>
       </c>
-      <c r="BB14" t="s">
-        <v>365</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>366</v>
-      </c>
-      <c r="BD14" t="s">
+      <c r="BO14" t="s">
         <v>367</v>
       </c>
-      <c r="BN14" t="s">
-        <v>368</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>371</v>
-      </c>
       <c r="BP14" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="BQ14" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="BT14" t="s">
         <v>206</v>
       </c>
       <c r="BU14" t="s">
+        <v>386</v>
+      </c>
+      <c r="BX14" t="s">
         <v>390</v>
       </c>
-      <c r="BX14" t="s">
+      <c r="BZ14" t="s">
+        <v>391</v>
+      </c>
+      <c r="CB14" t="s">
         <v>394</v>
       </c>
-      <c r="BZ14" t="s">
-        <v>395</v>
-      </c>
-      <c r="CB14" t="s">
-        <v>398</v>
-      </c>
       <c r="CE14" s="2" t="s">
-        <v>408</v>
+        <v>315</v>
       </c>
       <c r="CF14" t="s">
         <v>118</v>
       </c>
       <c r="CG14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="CH14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="CI14" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="CJ14" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="CK14" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="CL14" s="2" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:90">
@@ -4209,127 +4164,127 @@
         <v>206</v>
       </c>
       <c r="N15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AB15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AC15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AJ15" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AK15" t="s">
+        <v>342</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>345</v>
+      </c>
+      <c r="AP15" t="s">
         <v>346</v>
       </c>
-      <c r="AN15" t="s">
-        <v>349</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>350</v>
-      </c>
       <c r="AS15" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AU15" t="s">
+        <v>357</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>248</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>360</v>
+      </c>
+      <c r="BB15" t="s">
         <v>361</v>
       </c>
-      <c r="AW15" t="s">
-        <v>247</v>
-      </c>
-      <c r="AX15" t="s">
+      <c r="BC15" t="s">
+        <v>362</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>363</v>
+      </c>
+      <c r="BN15" t="s">
         <v>364</v>
       </c>
-      <c r="BB15" t="s">
-        <v>365</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>366</v>
-      </c>
-      <c r="BD15" t="s">
+      <c r="BO15" t="s">
         <v>367</v>
       </c>
-      <c r="BN15" t="s">
-        <v>368</v>
-      </c>
-      <c r="BO15" t="s">
+      <c r="BP15" t="s">
         <v>371</v>
       </c>
-      <c r="BP15" t="s">
-        <v>375</v>
-      </c>
       <c r="BQ15" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="BT15" t="s">
         <v>206</v>
       </c>
       <c r="BU15" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="BX15" t="s">
+        <v>390</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>391</v>
+      </c>
+      <c r="CB15" t="s">
         <v>394</v>
       </c>
-      <c r="BZ15" t="s">
-        <v>395</v>
-      </c>
-      <c r="CB15" t="s">
-        <v>398</v>
-      </c>
       <c r="CE15" s="2" t="s">
-        <v>409</v>
+        <v>316</v>
       </c>
       <c r="CF15" t="s">
         <v>119</v>
       </c>
       <c r="CG15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="CH15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="CI15" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="CJ15" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="CK15" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="CL15" s="2" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:90">
@@ -4373,127 +4328,127 @@
         <v>206</v>
       </c>
       <c r="N16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="R16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AB16" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AC16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AJ16" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AK16" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AN16" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AP16" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AS16" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AU16" t="s">
+        <v>358</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>241</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>360</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>361</v>
+      </c>
+      <c r="BC16" t="s">
         <v>362</v>
       </c>
-      <c r="AW16" t="s">
-        <v>240</v>
-      </c>
-      <c r="AX16" t="s">
+      <c r="BD16" t="s">
+        <v>363</v>
+      </c>
+      <c r="BN16" t="s">
         <v>364</v>
       </c>
-      <c r="BB16" t="s">
-        <v>365</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>366</v>
-      </c>
-      <c r="BD16" t="s">
+      <c r="BO16" t="s">
         <v>367</v>
       </c>
-      <c r="BN16" t="s">
-        <v>368</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>371</v>
-      </c>
       <c r="BP16" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="BQ16" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="BT16" t="s">
         <v>206</v>
       </c>
       <c r="BU16" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="BX16" t="s">
+        <v>390</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>391</v>
+      </c>
+      <c r="CB16" t="s">
         <v>394</v>
       </c>
-      <c r="BZ16" t="s">
-        <v>395</v>
-      </c>
-      <c r="CB16" t="s">
-        <v>398</v>
-      </c>
       <c r="CE16" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="CF16" t="s">
         <v>120</v>
       </c>
       <c r="CG16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="CH16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="CI16" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="CJ16" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="CK16" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="CL16" s="2" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:90">
@@ -4537,127 +4492,127 @@
         <v>206</v>
       </c>
       <c r="N17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="R17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z17" t="s">
         <v>167</v>
       </c>
       <c r="AA17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AB17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AC17" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AJ17" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AK17" t="s">
+        <v>344</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>345</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>346</v>
+      </c>
+      <c r="AS17" t="s">
         <v>348</v>
       </c>
-      <c r="AN17" t="s">
-        <v>349</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>350</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>352</v>
-      </c>
       <c r="AU17" t="s">
+        <v>359</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>248</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>360</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>361</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>362</v>
+      </c>
+      <c r="BD17" t="s">
         <v>363</v>
       </c>
-      <c r="AW17" t="s">
-        <v>247</v>
-      </c>
-      <c r="AX17" t="s">
+      <c r="BN17" t="s">
         <v>364</v>
       </c>
-      <c r="BB17" t="s">
-        <v>365</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>366</v>
-      </c>
-      <c r="BD17" t="s">
+      <c r="BO17" t="s">
         <v>367</v>
       </c>
-      <c r="BN17" t="s">
-        <v>368</v>
-      </c>
-      <c r="BO17" t="s">
-        <v>371</v>
-      </c>
       <c r="BP17" t="s">
+        <v>369</v>
+      </c>
+      <c r="BQ17" t="s">
         <v>373</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>377</v>
       </c>
       <c r="BT17" t="s">
         <v>206</v>
       </c>
       <c r="BU17" t="s">
+        <v>387</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>390</v>
+      </c>
+      <c r="BZ17" t="s">
         <v>391</v>
       </c>
-      <c r="BX17" t="s">
+      <c r="CB17" t="s">
         <v>394</v>
       </c>
-      <c r="BZ17" t="s">
-        <v>395</v>
-      </c>
-      <c r="CB17" t="s">
-        <v>398</v>
-      </c>
       <c r="CE17" s="2" t="s">
-        <v>410</v>
+        <v>318</v>
       </c>
       <c r="CF17" t="s">
         <v>121</v>
       </c>
       <c r="CG17" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="CH17" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="CI17" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="CJ17" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="CK17" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="CL17" s="2" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -4671,44 +4626,40 @@
     <hyperlink ref="AH4" r:id="rId7"/>
     <hyperlink ref="CE4" r:id="rId8"/>
     <hyperlink ref="CL4" r:id="rId9"/>
-    <hyperlink ref="AH5" r:id="rId10"/>
-    <hyperlink ref="CE5" r:id="rId11"/>
-    <hyperlink ref="CL5" r:id="rId12"/>
-    <hyperlink ref="AH6" r:id="rId13"/>
-    <hyperlink ref="CE6" r:id="rId14"/>
-    <hyperlink ref="CL6" r:id="rId15"/>
-    <hyperlink ref="AH7" r:id="rId16"/>
-    <hyperlink ref="CE7" r:id="rId17"/>
-    <hyperlink ref="CL7" r:id="rId18"/>
-    <hyperlink ref="AH8" r:id="rId19"/>
-    <hyperlink ref="CE8" r:id="rId20"/>
-    <hyperlink ref="CL8" r:id="rId21"/>
-    <hyperlink ref="AH9" r:id="rId22"/>
-    <hyperlink ref="CE9" r:id="rId23"/>
-    <hyperlink ref="CL9" r:id="rId24"/>
-    <hyperlink ref="AH10" r:id="rId25"/>
-    <hyperlink ref="CE10" r:id="rId26"/>
-    <hyperlink ref="CL10" r:id="rId27"/>
-    <hyperlink ref="AH11" r:id="rId28"/>
-    <hyperlink ref="CE11" r:id="rId29"/>
-    <hyperlink ref="CL11" r:id="rId30"/>
-    <hyperlink ref="AH12" r:id="rId31"/>
-    <hyperlink ref="CE12" r:id="rId32"/>
-    <hyperlink ref="CL12" r:id="rId33"/>
-    <hyperlink ref="AH13" r:id="rId34"/>
-    <hyperlink ref="CL13" r:id="rId35"/>
-    <hyperlink ref="AH14" r:id="rId36"/>
-    <hyperlink ref="CE14" r:id="rId37"/>
-    <hyperlink ref="CL14" r:id="rId38"/>
-    <hyperlink ref="AH15" r:id="rId39"/>
-    <hyperlink ref="CE15" r:id="rId40"/>
-    <hyperlink ref="CL15" r:id="rId41"/>
-    <hyperlink ref="AH16" r:id="rId42"/>
-    <hyperlink ref="CE16" r:id="rId43"/>
-    <hyperlink ref="CL16" r:id="rId44"/>
-    <hyperlink ref="AH17" r:id="rId45"/>
-    <hyperlink ref="CE17" r:id="rId46"/>
-    <hyperlink ref="CL17" r:id="rId47"/>
+    <hyperlink ref="CE5" r:id="rId10"/>
+    <hyperlink ref="CL5" r:id="rId11"/>
+    <hyperlink ref="CE6" r:id="rId12"/>
+    <hyperlink ref="CL6" r:id="rId13"/>
+    <hyperlink ref="CE7" r:id="rId14"/>
+    <hyperlink ref="CL7" r:id="rId15"/>
+    <hyperlink ref="CE8" r:id="rId16"/>
+    <hyperlink ref="CL8" r:id="rId17"/>
+    <hyperlink ref="CE9" r:id="rId18"/>
+    <hyperlink ref="CL9" r:id="rId19"/>
+    <hyperlink ref="AH10" r:id="rId20"/>
+    <hyperlink ref="CE10" r:id="rId21"/>
+    <hyperlink ref="CL10" r:id="rId22"/>
+    <hyperlink ref="AH11" r:id="rId23"/>
+    <hyperlink ref="CE11" r:id="rId24"/>
+    <hyperlink ref="CL11" r:id="rId25"/>
+    <hyperlink ref="AH12" r:id="rId26"/>
+    <hyperlink ref="CE12" r:id="rId27"/>
+    <hyperlink ref="CL12" r:id="rId28"/>
+    <hyperlink ref="AH13" r:id="rId29"/>
+    <hyperlink ref="CE13" r:id="rId30"/>
+    <hyperlink ref="CL13" r:id="rId31"/>
+    <hyperlink ref="AH14" r:id="rId32"/>
+    <hyperlink ref="CE14" r:id="rId33"/>
+    <hyperlink ref="CL14" r:id="rId34"/>
+    <hyperlink ref="AH15" r:id="rId35"/>
+    <hyperlink ref="CE15" r:id="rId36"/>
+    <hyperlink ref="CL15" r:id="rId37"/>
+    <hyperlink ref="AH16" r:id="rId38"/>
+    <hyperlink ref="CE16" r:id="rId39"/>
+    <hyperlink ref="CL16" r:id="rId40"/>
+    <hyperlink ref="AH17" r:id="rId41"/>
+    <hyperlink ref="CE17" r:id="rId42"/>
+    <hyperlink ref="CL17" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/temp_qc_domain_output.xlsx
+++ b/temp_qc_domain_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="443">
   <si>
     <t>Id</t>
   </si>
@@ -1199,21 +1199,6 @@
   </si>
   <si>
     <t>Match</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/in/melanie-thomas-2a086b323</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/jan-domokos-2151791</t>
-  </si>
-  <si>
-    <t>https://ca.linkedin.com/in/kate-kiely</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/robin-kleinjans-mckee</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/staci-olmstead-992b0339</t>
   </si>
   <si>
     <t>promutuelassurance.ca</t>
@@ -2158,16 +2143,16 @@
         <v>293</v>
       </c>
       <c r="CI2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="CJ2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="CK2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:90">
@@ -2322,16 +2307,16 @@
         <v>293</v>
       </c>
       <c r="CI3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="CJ3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="CK3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="CL3" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:90">
@@ -2483,19 +2468,19 @@
         <v>294</v>
       </c>
       <c r="CH4" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="CI4" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="CJ4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="CK4" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="CL4" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:90">
@@ -2574,6 +2559,9 @@
       <c r="AC5" t="s">
         <v>295</v>
       </c>
+      <c r="AH5" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="AJ5" t="s">
         <v>320</v>
       </c>
@@ -2635,7 +2623,7 @@
         <v>394</v>
       </c>
       <c r="CE5" s="2" t="s">
-        <v>395</v>
+        <v>311</v>
       </c>
       <c r="CF5" t="s">
         <v>109</v>
@@ -2647,16 +2635,16 @@
         <v>295</v>
       </c>
       <c r="CI5" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="CJ5" t="s">
+        <v>411</v>
+      </c>
+      <c r="CK5" t="s">
         <v>416</v>
       </c>
-      <c r="CK5" t="s">
-        <v>421</v>
-      </c>
       <c r="CL5" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:90">
@@ -2735,6 +2723,9 @@
       <c r="AC6" t="s">
         <v>296</v>
       </c>
+      <c r="AH6" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="AJ6" t="s">
         <v>321</v>
       </c>
@@ -2796,7 +2787,7 @@
         <v>394</v>
       </c>
       <c r="CE6" s="2" t="s">
-        <v>396</v>
+        <v>312</v>
       </c>
       <c r="CF6" t="s">
         <v>110</v>
@@ -2808,16 +2799,16 @@
         <v>296</v>
       </c>
       <c r="CI6" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="CJ6" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="CK6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="CL6" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:90">
@@ -2899,6 +2890,9 @@
       <c r="AC7" t="s">
         <v>297</v>
       </c>
+      <c r="AH7" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="AJ7" t="s">
         <v>322</v>
       </c>
@@ -2957,7 +2951,7 @@
         <v>394</v>
       </c>
       <c r="CE7" s="2" t="s">
-        <v>397</v>
+        <v>313</v>
       </c>
       <c r="CF7" t="s">
         <v>111</v>
@@ -2969,16 +2963,16 @@
         <v>297</v>
       </c>
       <c r="CI7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="CJ7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="CK7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="CL7" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:90">
@@ -3057,6 +3051,9 @@
       <c r="AC8" t="s">
         <v>298</v>
       </c>
+      <c r="AH8" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="AJ8" t="s">
         <v>323</v>
       </c>
@@ -3118,7 +3115,7 @@
         <v>394</v>
       </c>
       <c r="CE8" s="2" t="s">
-        <v>398</v>
+        <v>314</v>
       </c>
       <c r="CF8" t="s">
         <v>112</v>
@@ -3130,16 +3127,16 @@
         <v>298</v>
       </c>
       <c r="CI8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="CJ8" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="CK8" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="CL8" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:90">
@@ -3218,6 +3215,9 @@
       <c r="AC9" t="s">
         <v>299</v>
       </c>
+      <c r="AH9" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="AJ9" t="s">
         <v>323</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>394</v>
       </c>
       <c r="CE9" s="2" t="s">
-        <v>399</v>
+        <v>315</v>
       </c>
       <c r="CF9" t="s">
         <v>113</v>
@@ -3291,16 +3291,16 @@
         <v>299</v>
       </c>
       <c r="CI9" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="CJ9" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="CK9" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="CL9" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:90">
@@ -3377,7 +3377,7 @@
         <v>300</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AJ10" t="s">
         <v>324</v>
@@ -3440,7 +3440,7 @@
         <v>394</v>
       </c>
       <c r="CE10" s="2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="CF10" t="s">
         <v>114</v>
@@ -3449,19 +3449,19 @@
         <v>300</v>
       </c>
       <c r="CH10" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="CI10" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="CJ10" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="CK10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="CL10" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:90">
@@ -3541,7 +3541,7 @@
         <v>301</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AJ11" t="s">
         <v>322</v>
@@ -3604,7 +3604,7 @@
         <v>394</v>
       </c>
       <c r="CE11" s="2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="CF11" t="s">
         <v>115</v>
@@ -3616,16 +3616,16 @@
         <v>301</v>
       </c>
       <c r="CI11" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="CJ11" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="CK11" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="CL11" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:90">
@@ -3705,7 +3705,7 @@
         <v>302</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AJ12" t="s">
         <v>325</v>
@@ -3768,7 +3768,7 @@
         <v>394</v>
       </c>
       <c r="CE12" s="2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="CF12" t="s">
         <v>116</v>
@@ -3780,16 +3780,16 @@
         <v>302</v>
       </c>
       <c r="CI12" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="CJ12" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="CK12" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="CL12" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:90">
@@ -3947,16 +3947,16 @@
         <v>303</v>
       </c>
       <c r="CI13" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="CJ13" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="CK13" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="CL13" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:90">
@@ -4111,16 +4111,16 @@
         <v>304</v>
       </c>
       <c r="CI14" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="CJ14" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="CK14" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="CL14" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:90">
@@ -4275,16 +4275,16 @@
         <v>305</v>
       </c>
       <c r="CI15" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="CJ15" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="CK15" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="CL15" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:90">
@@ -4439,16 +4439,16 @@
         <v>306</v>
       </c>
       <c r="CI16" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="CJ16" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="CK16" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="CL16" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:90">
@@ -4603,16 +4603,16 @@
         <v>307</v>
       </c>
       <c r="CI17" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="CJ17" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="CK17" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="CL17" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -4626,40 +4626,45 @@
     <hyperlink ref="AH4" r:id="rId7"/>
     <hyperlink ref="CE4" r:id="rId8"/>
     <hyperlink ref="CL4" r:id="rId9"/>
-    <hyperlink ref="CE5" r:id="rId10"/>
-    <hyperlink ref="CL5" r:id="rId11"/>
-    <hyperlink ref="CE6" r:id="rId12"/>
-    <hyperlink ref="CL6" r:id="rId13"/>
-    <hyperlink ref="CE7" r:id="rId14"/>
-    <hyperlink ref="CL7" r:id="rId15"/>
-    <hyperlink ref="CE8" r:id="rId16"/>
-    <hyperlink ref="CL8" r:id="rId17"/>
-    <hyperlink ref="CE9" r:id="rId18"/>
-    <hyperlink ref="CL9" r:id="rId19"/>
-    <hyperlink ref="AH10" r:id="rId20"/>
-    <hyperlink ref="CE10" r:id="rId21"/>
-    <hyperlink ref="CL10" r:id="rId22"/>
-    <hyperlink ref="AH11" r:id="rId23"/>
-    <hyperlink ref="CE11" r:id="rId24"/>
-    <hyperlink ref="CL11" r:id="rId25"/>
-    <hyperlink ref="AH12" r:id="rId26"/>
-    <hyperlink ref="CE12" r:id="rId27"/>
-    <hyperlink ref="CL12" r:id="rId28"/>
-    <hyperlink ref="AH13" r:id="rId29"/>
-    <hyperlink ref="CE13" r:id="rId30"/>
-    <hyperlink ref="CL13" r:id="rId31"/>
-    <hyperlink ref="AH14" r:id="rId32"/>
-    <hyperlink ref="CE14" r:id="rId33"/>
-    <hyperlink ref="CL14" r:id="rId34"/>
-    <hyperlink ref="AH15" r:id="rId35"/>
-    <hyperlink ref="CE15" r:id="rId36"/>
-    <hyperlink ref="CL15" r:id="rId37"/>
-    <hyperlink ref="AH16" r:id="rId38"/>
-    <hyperlink ref="CE16" r:id="rId39"/>
-    <hyperlink ref="CL16" r:id="rId40"/>
-    <hyperlink ref="AH17" r:id="rId41"/>
-    <hyperlink ref="CE17" r:id="rId42"/>
-    <hyperlink ref="CL17" r:id="rId43"/>
+    <hyperlink ref="AH5" r:id="rId10"/>
+    <hyperlink ref="CE5" r:id="rId11"/>
+    <hyperlink ref="CL5" r:id="rId12"/>
+    <hyperlink ref="AH6" r:id="rId13"/>
+    <hyperlink ref="CE6" r:id="rId14"/>
+    <hyperlink ref="CL6" r:id="rId15"/>
+    <hyperlink ref="AH7" r:id="rId16"/>
+    <hyperlink ref="CE7" r:id="rId17"/>
+    <hyperlink ref="CL7" r:id="rId18"/>
+    <hyperlink ref="AH8" r:id="rId19"/>
+    <hyperlink ref="CE8" r:id="rId20"/>
+    <hyperlink ref="CL8" r:id="rId21"/>
+    <hyperlink ref="AH9" r:id="rId22"/>
+    <hyperlink ref="CE9" r:id="rId23"/>
+    <hyperlink ref="CL9" r:id="rId24"/>
+    <hyperlink ref="AH10" r:id="rId25"/>
+    <hyperlink ref="CE10" r:id="rId26"/>
+    <hyperlink ref="CL10" r:id="rId27"/>
+    <hyperlink ref="AH11" r:id="rId28"/>
+    <hyperlink ref="CE11" r:id="rId29"/>
+    <hyperlink ref="CL11" r:id="rId30"/>
+    <hyperlink ref="AH12" r:id="rId31"/>
+    <hyperlink ref="CE12" r:id="rId32"/>
+    <hyperlink ref="CL12" r:id="rId33"/>
+    <hyperlink ref="AH13" r:id="rId34"/>
+    <hyperlink ref="CE13" r:id="rId35"/>
+    <hyperlink ref="CL13" r:id="rId36"/>
+    <hyperlink ref="AH14" r:id="rId37"/>
+    <hyperlink ref="CE14" r:id="rId38"/>
+    <hyperlink ref="CL14" r:id="rId39"/>
+    <hyperlink ref="AH15" r:id="rId40"/>
+    <hyperlink ref="CE15" r:id="rId41"/>
+    <hyperlink ref="CL15" r:id="rId42"/>
+    <hyperlink ref="AH16" r:id="rId43"/>
+    <hyperlink ref="CE16" r:id="rId44"/>
+    <hyperlink ref="CL16" r:id="rId45"/>
+    <hyperlink ref="AH17" r:id="rId46"/>
+    <hyperlink ref="CE17" r:id="rId47"/>
+    <hyperlink ref="CL17" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/temp_qc_domain_output.xlsx
+++ b/temp_qc_domain_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="498">
   <si>
     <t>Id</t>
   </si>
@@ -1216,145 +1216,109 @@
     <t>2578l9i</t>
   </si>
   <si>
-    <t>627 employees</t>
-  </si>
-  <si>
-    <t>2,200 employees</t>
+    <t>627 Employees</t>
+  </si>
+  <si>
+    <t>15 employees</t>
+  </si>
+  <si>
+    <t>25 Employees</t>
+  </si>
+  <si>
+    <t>161 Employees</t>
+  </si>
+  <si>
+    <t>644 Employees</t>
   </si>
   <si>
     <t>719 employees</t>
   </si>
   <si>
-    <t>8 employees</t>
-  </si>
-  <si>
-    <t>161 employees</t>
-  </si>
-  <si>
-    <t>30 employees</t>
-  </si>
-  <si>
-    <t>647 employees</t>
-  </si>
-  <si>
-    <t>1,490 employees</t>
-  </si>
-  <si>
-    <t>145 employees</t>
-  </si>
-  <si>
-    <t>43 employees</t>
-  </si>
-  <si>
-    <t>2,475 employees</t>
-  </si>
-  <si>
-    <t>15 employees</t>
-  </si>
-  <si>
-    <t>1,000 employees</t>
-  </si>
-  <si>
-    <t>389 employees</t>
-  </si>
-  <si>
-    <t>12 employees</t>
-  </si>
-  <si>
-    <t>$1.2B</t>
-  </si>
-  <si>
-    <t>$7.3 Billion</t>
+    <t>1,490 Employees</t>
+  </si>
+  <si>
+    <t>160 Employees</t>
+  </si>
+  <si>
+    <t>43 Employees</t>
+  </si>
+  <si>
+    <t>2,475 Employees</t>
+  </si>
+  <si>
+    <t>52 Employees</t>
+  </si>
+  <si>
+    <t>1,000 Employees</t>
+  </si>
+  <si>
+    <t>389 Employees</t>
+  </si>
+  <si>
+    <t>$5 Million</t>
+  </si>
+  <si>
+    <t>$864.7 Million</t>
   </si>
   <si>
     <t>$141 Million</t>
   </si>
   <si>
-    <t>$ 5M</t>
-  </si>
-  <si>
-    <t>$60.2M</t>
-  </si>
-  <si>
-    <t>$5M</t>
-  </si>
-  <si>
-    <t>$661.6 Million</t>
-  </si>
-  <si>
-    <t>$510.1M</t>
-  </si>
-  <si>
-    <t>$49M</t>
-  </si>
-  <si>
-    <t>$15m</t>
-  </si>
-  <si>
-    <t>$6.1M</t>
-  </si>
-  <si>
-    <t>$5.1 billion</t>
-  </si>
-  <si>
-    <t>$58.8 Million</t>
-  </si>
-  <si>
-    <t>$5.1 Million</t>
-  </si>
-  <si>
-    <t>Construction</t>
+    <t>$ 5 Million</t>
+  </si>
+  <si>
+    <t>$328.5 Million</t>
+  </si>
+  <si>
+    <t>$33.6 Million</t>
+  </si>
+  <si>
+    <t>$15.9 Million</t>
+  </si>
+  <si>
+    <t>$6.1 Million</t>
+  </si>
+  <si>
+    <t>$210.1 Million</t>
+  </si>
+  <si>
+    <t>$81.7</t>
+  </si>
+  <si>
+    <t>Marketing Services</t>
   </si>
   <si>
     <t>Real Estate</t>
   </si>
   <si>
-    <t>Information Technology &amp; Services</t>
-  </si>
-  <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Biotechnology Research</t>
-  </si>
-  <si>
-    <t>Advertising Services</t>
-  </si>
-  <si>
-    <t>Spectator Sports</t>
-  </si>
-  <si>
-    <t>False</t>
+    <t>Recreational Facilities</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
   <si>
     <t>627</t>
   </si>
   <si>
-    <t>2200</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>644</t>
   </si>
   <si>
     <t>719</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>647</t>
-  </si>
-  <si>
     <t>1490</t>
   </si>
   <si>
-    <t>145</t>
+    <t>160</t>
   </si>
   <si>
     <t>43</t>
@@ -1363,7 +1327,7 @@
     <t>2475</t>
   </si>
   <si>
-    <t>15</t>
+    <t>52</t>
   </si>
   <si>
     <t>1000</t>
@@ -1372,46 +1336,31 @@
     <t>389</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1200000000</t>
-  </si>
-  <si>
-    <t>7300000000</t>
+    <t>5000000</t>
+  </si>
+  <si>
+    <t>864700000</t>
   </si>
   <si>
     <t>141000000</t>
   </si>
   <si>
-    <t>5000000</t>
-  </si>
-  <si>
-    <t>60200000</t>
-  </si>
-  <si>
-    <t>661600000</t>
-  </si>
-  <si>
-    <t>510100000</t>
-  </si>
-  <si>
-    <t>49000000</t>
-  </si>
-  <si>
-    <t>15000000</t>
+    <t>328500000</t>
+  </si>
+  <si>
+    <t>33600000</t>
+  </si>
+  <si>
+    <t>15900000</t>
   </si>
   <si>
     <t>6100000</t>
   </si>
   <si>
-    <t>5100000000</t>
-  </si>
-  <si>
-    <t>58800000</t>
-  </si>
-  <si>
-    <t>5100000</t>
+    <t>210100000</t>
+  </si>
+  <si>
+    <t>81700000</t>
   </si>
   <si>
     <t>Match</t>
@@ -2365,22 +2314,22 @@
         <v>400</v>
       </c>
       <c r="CC2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="CD2" t="s">
-        <v>429</v>
+        <v>282</v>
       </c>
       <c r="CE2" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="CF2" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="CG2" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="CH2" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="CK2" s="2" t="s">
         <v>314</v>
@@ -2395,16 +2344,16 @@
         <v>299</v>
       </c>
       <c r="CO2" t="s">
+        <v>452</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>466</v>
+      </c>
+      <c r="CQ2" t="s">
         <v>469</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CR2" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>486</v>
-      </c>
-      <c r="CR2" s="2" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:96">
@@ -2547,22 +2496,22 @@
         <v>400</v>
       </c>
       <c r="CC3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="CD3" t="s">
-        <v>429</v>
+        <v>282</v>
       </c>
       <c r="CE3" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="CF3" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="CG3" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="CH3" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="CK3" s="2" t="s">
         <v>315</v>
@@ -2577,16 +2526,16 @@
         <v>299</v>
       </c>
       <c r="CO3" t="s">
+        <v>452</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>466</v>
+      </c>
+      <c r="CQ3" t="s">
         <v>469</v>
       </c>
-      <c r="CP3" t="s">
+      <c r="CR3" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>486</v>
-      </c>
-      <c r="CR3" s="2" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:96">
@@ -2729,19 +2678,22 @@
         <v>401</v>
       </c>
       <c r="CC4" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>282</v>
       </c>
       <c r="CE4" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="CF4" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="CG4" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="CH4" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="CK4" s="2" t="s">
         <v>316</v>
@@ -2753,19 +2705,19 @@
         <v>300</v>
       </c>
       <c r="CN4" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="CO4" t="s">
+        <v>453</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>466</v>
+      </c>
+      <c r="CQ4" t="s">
         <v>470</v>
       </c>
-      <c r="CP4" t="s">
-        <v>483</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>487</v>
-      </c>
       <c r="CR4" s="2" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:96">
@@ -2905,25 +2857,25 @@
         <v>397</v>
       </c>
       <c r="CB5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="CC5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="CD5" t="s">
         <v>282</v>
       </c>
       <c r="CE5" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="CF5" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="CG5" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="CH5" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="CK5" s="2" t="s">
         <v>317</v>
@@ -2938,16 +2890,16 @@
         <v>301</v>
       </c>
       <c r="CO5" t="s">
+        <v>454</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>466</v>
+      </c>
+      <c r="CQ5" t="s">
         <v>471</v>
       </c>
-      <c r="CP5" t="s">
-        <v>483</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>488</v>
-      </c>
       <c r="CR5" s="2" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:96">
@@ -3087,25 +3039,25 @@
         <v>397</v>
       </c>
       <c r="CB6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="CC6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="CD6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="CE6" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="CF6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="CG6" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="CH6" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="CK6" s="2" t="s">
         <v>318</v>
@@ -3120,16 +3072,16 @@
         <v>302</v>
       </c>
       <c r="CO6" t="s">
+        <v>454</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>467</v>
+      </c>
+      <c r="CQ6" t="s">
         <v>471</v>
       </c>
-      <c r="CP6" t="s">
-        <v>484</v>
-      </c>
-      <c r="CQ6" t="s">
-        <v>488</v>
-      </c>
       <c r="CR6" s="2" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:96">
@@ -3269,25 +3221,25 @@
         <v>397</v>
       </c>
       <c r="CB7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="CC7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="CD7" t="s">
+        <v>283</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>426</v>
+      </c>
+      <c r="CF7" t="s">
         <v>430</v>
       </c>
-      <c r="CE7" t="s">
-        <v>437</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>442</v>
-      </c>
       <c r="CG7" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="CH7" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="CK7" s="2" t="s">
         <v>319</v>
@@ -3302,16 +3254,16 @@
         <v>303</v>
       </c>
       <c r="CO7" t="s">
+        <v>455</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>466</v>
+      </c>
+      <c r="CQ7" t="s">
         <v>472</v>
       </c>
-      <c r="CP7" t="s">
-        <v>483</v>
-      </c>
-      <c r="CQ7" t="s">
-        <v>489</v>
-      </c>
       <c r="CR7" s="2" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:96">
@@ -3451,25 +3403,25 @@
         <v>397</v>
       </c>
       <c r="CB8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="CC8" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="CD8" t="s">
+        <v>283</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>426</v>
+      </c>
+      <c r="CF8" t="s">
         <v>431</v>
       </c>
-      <c r="CE8" t="s">
-        <v>437</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>443</v>
-      </c>
       <c r="CG8" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="CH8" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="CK8" s="2" t="s">
         <v>320</v>
@@ -3484,16 +3436,16 @@
         <v>304</v>
       </c>
       <c r="CO8" t="s">
+        <v>456</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>466</v>
+      </c>
+      <c r="CQ8" t="s">
         <v>473</v>
       </c>
-      <c r="CP8" t="s">
-        <v>483</v>
-      </c>
-      <c r="CQ8" t="s">
-        <v>490</v>
-      </c>
       <c r="CR8" s="2" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:96">
@@ -3633,25 +3585,25 @@
         <v>397</v>
       </c>
       <c r="CB9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="CC9" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="CD9" t="s">
         <v>284</v>
       </c>
       <c r="CE9" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="CF9" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="CG9" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="CH9" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="CK9" s="2" t="s">
         <v>321</v>
@@ -3666,16 +3618,16 @@
         <v>305</v>
       </c>
       <c r="CO9" t="s">
+        <v>457</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>466</v>
+      </c>
+      <c r="CQ9" t="s">
         <v>474</v>
       </c>
-      <c r="CP9" t="s">
-        <v>483</v>
-      </c>
-      <c r="CQ9" t="s">
-        <v>491</v>
-      </c>
       <c r="CR9" s="2" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:96">
@@ -3812,25 +3764,25 @@
         <v>399</v>
       </c>
       <c r="CB10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="CC10" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="CD10" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="CE10" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="CF10" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="CG10" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="CH10" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="CK10" s="2" t="s">
         <v>322</v>
@@ -3842,19 +3794,19 @@
         <v>306</v>
       </c>
       <c r="CN10" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="CO10" t="s">
+        <v>458</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>466</v>
+      </c>
+      <c r="CQ10" t="s">
         <v>475</v>
       </c>
-      <c r="CP10" t="s">
-        <v>483</v>
-      </c>
-      <c r="CQ10" t="s">
-        <v>492</v>
-      </c>
       <c r="CR10" s="2" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:96">
@@ -3994,25 +3946,25 @@
         <v>397</v>
       </c>
       <c r="CB11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="CC11" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="CD11" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="CE11" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="CF11" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="CG11" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="CH11" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="CK11" s="2" t="s">
         <v>323</v>
@@ -4027,16 +3979,16 @@
         <v>307</v>
       </c>
       <c r="CO11" t="s">
+        <v>459</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>466</v>
+      </c>
+      <c r="CQ11" t="s">
         <v>476</v>
       </c>
-      <c r="CP11" t="s">
-        <v>483</v>
-      </c>
-      <c r="CQ11" t="s">
-        <v>493</v>
-      </c>
       <c r="CR11" s="2" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:96">
@@ -4176,25 +4128,25 @@
         <v>397</v>
       </c>
       <c r="CB12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="CC12" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="CD12" t="s">
-        <v>434</v>
+        <v>287</v>
       </c>
       <c r="CE12" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="CF12" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="CG12" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="CH12" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="CK12" s="2" t="s">
         <v>324</v>
@@ -4209,16 +4161,16 @@
         <v>308</v>
       </c>
       <c r="CO12" t="s">
+        <v>460</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>466</v>
+      </c>
+      <c r="CQ12" t="s">
         <v>477</v>
       </c>
-      <c r="CP12" t="s">
-        <v>483</v>
-      </c>
-      <c r="CQ12" t="s">
-        <v>494</v>
-      </c>
       <c r="CR12" s="2" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:96">
@@ -4361,25 +4313,25 @@
         <v>397</v>
       </c>
       <c r="CB13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="CC13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="CD13" t="s">
         <v>287</v>
       </c>
       <c r="CE13" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="CF13" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="CG13" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="CH13" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="CK13" s="2" t="s">
         <v>320</v>
@@ -4394,16 +4346,16 @@
         <v>309</v>
       </c>
       <c r="CO13" t="s">
+        <v>461</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>468</v>
+      </c>
+      <c r="CQ13" t="s">
         <v>478</v>
       </c>
-      <c r="CP13" t="s">
-        <v>485</v>
-      </c>
-      <c r="CQ13" t="s">
-        <v>495</v>
-      </c>
       <c r="CR13" s="2" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:96">
@@ -4543,25 +4495,25 @@
         <v>397</v>
       </c>
       <c r="CB14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="CC14" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="CD14" t="s">
         <v>289</v>
       </c>
       <c r="CE14" t="s">
+        <v>426</v>
+      </c>
+      <c r="CF14" t="s">
         <v>437</v>
       </c>
-      <c r="CF14" t="s">
+      <c r="CG14" t="s">
+        <v>446</v>
+      </c>
+      <c r="CH14" t="s">
         <v>449</v>
-      </c>
-      <c r="CG14" t="s">
-        <v>462</v>
-      </c>
-      <c r="CH14" t="s">
-        <v>466</v>
       </c>
       <c r="CK14" s="2" t="s">
         <v>321</v>
@@ -4576,16 +4528,16 @@
         <v>310</v>
       </c>
       <c r="CO14" t="s">
+        <v>462</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>466</v>
+      </c>
+      <c r="CQ14" t="s">
         <v>479</v>
       </c>
-      <c r="CP14" t="s">
-        <v>483</v>
-      </c>
-      <c r="CQ14" t="s">
-        <v>496</v>
-      </c>
       <c r="CR14" s="2" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:96">
@@ -4725,25 +4677,25 @@
         <v>397</v>
       </c>
       <c r="CB15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="CC15" t="s">
+        <v>421</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>289</v>
+      </c>
+      <c r="CE15" t="s">
         <v>426</v>
       </c>
-      <c r="CD15" t="s">
-        <v>431</v>
-      </c>
-      <c r="CE15" t="s">
-        <v>437</v>
-      </c>
       <c r="CF15" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="CG15" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="CH15" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="CK15" s="2" t="s">
         <v>322</v>
@@ -4758,16 +4710,16 @@
         <v>311</v>
       </c>
       <c r="CO15" t="s">
+        <v>463</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>466</v>
+      </c>
+      <c r="CQ15" t="s">
         <v>480</v>
       </c>
-      <c r="CP15" t="s">
-        <v>483</v>
-      </c>
-      <c r="CQ15" t="s">
-        <v>497</v>
-      </c>
       <c r="CR15" s="2" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:96">
@@ -4907,25 +4859,25 @@
         <v>397</v>
       </c>
       <c r="CB16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="CC16" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="CD16" t="s">
-        <v>435</v>
+        <v>290</v>
       </c>
       <c r="CE16" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="CF16" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="CG16" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="CH16" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="CK16" s="2" t="s">
         <v>323</v>
@@ -4940,16 +4892,16 @@
         <v>312</v>
       </c>
       <c r="CO16" t="s">
+        <v>464</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>466</v>
+      </c>
+      <c r="CQ16" t="s">
         <v>481</v>
       </c>
-      <c r="CP16" t="s">
-        <v>483</v>
-      </c>
-      <c r="CQ16" t="s">
-        <v>498</v>
-      </c>
       <c r="CR16" s="2" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:96">
@@ -5089,25 +5041,25 @@
         <v>397</v>
       </c>
       <c r="CB17" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="CC17" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="CD17" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="CE17" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="CF17" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="CG17" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="CH17" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="CK17" s="2" t="s">
         <v>324</v>
@@ -5122,16 +5074,16 @@
         <v>313</v>
       </c>
       <c r="CO17" t="s">
+        <v>465</v>
+      </c>
+      <c r="CP17" t="s">
+        <v>466</v>
+      </c>
+      <c r="CQ17" t="s">
         <v>482</v>
       </c>
-      <c r="CP17" t="s">
-        <v>483</v>
-      </c>
-      <c r="CQ17" t="s">
-        <v>499</v>
-      </c>
       <c r="CR17" s="2" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>

--- a/temp_qc_domain_output.xlsx
+++ b/temp_qc_domain_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2925" uniqueCount="1028">
   <si>
     <t>Id</t>
   </si>
@@ -2353,18 +2353,21 @@
     <t>95 Employees</t>
   </si>
   <si>
-    <t>37 employees</t>
+    <t>268 Employees</t>
   </si>
   <si>
     <t>148 Employees</t>
   </si>
   <si>
+    <t>1,700 Employees</t>
+  </si>
+  <si>
+    <t>119 employees</t>
+  </si>
+  <si>
     <t>25 employees</t>
   </si>
   <si>
-    <t>119 employees</t>
-  </si>
-  <si>
     <t>452 employees</t>
   </si>
   <si>
@@ -2395,7 +2398,7 @@
     <t>399 employees</t>
   </si>
   <si>
-    <t>500 Employees</t>
+    <t>500 employees</t>
   </si>
   <si>
     <t>1,820 employees</t>
@@ -2422,13 +2425,10 @@
     <t>335 employees</t>
   </si>
   <si>
-    <t>359 employees</t>
-  </si>
-  <si>
     <t>200 employees</t>
   </si>
   <si>
-    <t>542 Employees</t>
+    <t>542 employees</t>
   </si>
   <si>
     <t>1,300 employees</t>
@@ -2443,60 +2443,66 @@
     <t>$19.3 Million</t>
   </si>
   <si>
+    <t>$128.3 Million</t>
+  </si>
+  <si>
+    <t>$141 Million</t>
+  </si>
+  <si>
+    <t>$336.9 Million</t>
+  </si>
+  <si>
+    <t>$34.7</t>
+  </si>
+  <si>
+    <t>$119 Million</t>
+  </si>
+  <si>
+    <t>$247.7 Million</t>
+  </si>
+  <si>
+    <t>$24.3 Million</t>
+  </si>
+  <si>
+    <t>$50.9 Million</t>
+  </si>
+  <si>
+    <t>$220.9 Million</t>
+  </si>
+  <si>
+    <t>$39.3 Million</t>
+  </si>
+  <si>
+    <t>$252.1 Million</t>
+  </si>
+  <si>
+    <t>$239.5 Million</t>
+  </si>
+  <si>
+    <t>$1.1 Billion</t>
+  </si>
+  <si>
+    <t>$674.3 Million</t>
+  </si>
+  <si>
+    <t>$58.4 Million</t>
+  </si>
+  <si>
+    <t>$64 Million</t>
+  </si>
+  <si>
+    <t>$168.7 Million</t>
+  </si>
+  <si>
+    <t>$534.9 Million</t>
+  </si>
+  <si>
+    <t>$54.6</t>
+  </si>
+  <si>
     <t>$5 Million</t>
   </si>
   <si>
-    <t>$141 Million</t>
-  </si>
-  <si>
-    <t>$5.1 Million</t>
-  </si>
-  <si>
-    <t>$34.7</t>
-  </si>
-  <si>
-    <t>$119 Million</t>
-  </si>
-  <si>
-    <t>$247.7 Million</t>
-  </si>
-  <si>
-    <t>$24.3 Million</t>
-  </si>
-  <si>
-    <t>$220.9 Million</t>
-  </si>
-  <si>
-    <t>$39.3 Million</t>
-  </si>
-  <si>
-    <t>$252.1 Million</t>
-  </si>
-  <si>
-    <t>$239.5 Million</t>
-  </si>
-  <si>
-    <t>$1.1 Billion</t>
-  </si>
-  <si>
-    <t>$674.3 Million</t>
-  </si>
-  <si>
-    <t>$58.4 Million</t>
-  </si>
-  <si>
-    <t>$64 Million</t>
-  </si>
-  <si>
-    <t>$168.7 Million</t>
-  </si>
-  <si>
-    <t>$534.9 Million</t>
-  </si>
-  <si>
-    <t>$54.6</t>
-  </si>
-  <si>
     <t>$10.9 Million</t>
   </si>
   <si>
@@ -2539,6 +2545,9 @@
     <t>Food and Beverage Services</t>
   </si>
   <si>
+    <t>Non-profit Organization Management</t>
+  </si>
+  <si>
     <t>Recreational Facilities</t>
   </si>
   <si>
@@ -2560,16 +2569,13 @@
     <t>Aviation &amp;amp; Aerospace</t>
   </si>
   <si>
-    <t>Food and Beverage Manufacturing</t>
-  </si>
-  <si>
     <t>Software Development</t>
   </si>
   <si>
     <t>Advertising Services</t>
   </si>
   <si>
-    <t>Non-profit Organization Management</t>
+    <t>Building Materials</t>
   </si>
   <si>
     <t>Accounting</t>
@@ -2602,18 +2608,21 @@
     <t>95</t>
   </si>
   <si>
-    <t>37</t>
+    <t>268</t>
   </si>
   <si>
     <t>148</t>
   </si>
   <si>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
     <t>25</t>
   </si>
   <si>
-    <t>119</t>
-  </si>
-  <si>
     <t>452</t>
   </si>
   <si>
@@ -2668,9 +2677,6 @@
     <t>335</t>
   </si>
   <si>
-    <t>359</t>
-  </si>
-  <si>
     <t>200</t>
   </si>
   <si>
@@ -2689,10 +2695,13 @@
     <t>19300000</t>
   </si>
   <si>
+    <t>128300000</t>
+  </si>
+  <si>
     <t>141000000</t>
   </si>
   <si>
-    <t>5100000</t>
+    <t>336900000</t>
   </si>
   <si>
     <t>34700000</t>
@@ -2707,6 +2716,9 @@
     <t>24300000</t>
   </si>
   <si>
+    <t>50900000</t>
+  </si>
+  <si>
     <t>220900000</t>
   </si>
   <si>
@@ -2783,6 +2795,9 @@
   </si>
   <si>
     <t>Check domain mismatch</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/geraldashleytecnologyexecutive</t>
   </si>
   <si>
     <t>alberta.ca</t>
@@ -3889,19 +3904,19 @@
         <v>806</v>
       </c>
       <c r="CD2" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="CE2" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF2" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="CG2" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="CH2" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK2" s="2" t="s">
         <v>585</v>
@@ -3916,16 +3931,16 @@
         <v>552</v>
       </c>
       <c r="CO2" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="CP2" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ2" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
     </row>
     <row r="3" spans="1:96">
@@ -4074,19 +4089,19 @@
         <v>807</v>
       </c>
       <c r="CD3" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="CE3" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF3" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="CG3" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="CH3" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK3" s="2" t="s">
         <v>586</v>
@@ -4095,22 +4110,22 @@
         <v>145</v>
       </c>
       <c r="CM3" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="CN3" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="CO3" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="CP3" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ3" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="CR3" s="2" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="4" spans="1:96">
@@ -4268,19 +4283,19 @@
         <v>538</v>
       </c>
       <c r="CE4" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF4" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="CG4" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="CH4" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="CI4" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="CK4" s="2" t="s">
         <v>587</v>
@@ -4295,16 +4310,16 @@
         <v>554</v>
       </c>
       <c r="CO4" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="CP4" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ4" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="CR4" s="2" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
     </row>
     <row r="5" spans="1:96">
@@ -4453,19 +4468,19 @@
         <v>809</v>
       </c>
       <c r="CD5" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="CE5" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF5" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="CG5" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="CH5" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK5" s="2" t="s">
         <v>588</v>
@@ -4480,16 +4495,16 @@
         <v>555</v>
       </c>
       <c r="CO5" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="CP5" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ5" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="CR5" s="2" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
     </row>
     <row r="6" spans="1:96">
@@ -4635,19 +4650,19 @@
         <v>810</v>
       </c>
       <c r="CD6" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="CE6" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF6" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="CG6" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="CH6" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK6" s="2" t="s">
         <v>589</v>
@@ -4662,16 +4677,16 @@
         <v>556</v>
       </c>
       <c r="CO6" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="CP6" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ6" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="CR6" s="2" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:96">
@@ -4820,16 +4835,16 @@
         <v>538</v>
       </c>
       <c r="CE7" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF7" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="CG7" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="CH7" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK7" s="2" t="s">
         <v>590</v>
@@ -4844,16 +4859,16 @@
         <v>557</v>
       </c>
       <c r="CO7" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="CP7" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ7" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="CR7" s="2" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="8" spans="1:96">
@@ -5005,16 +5020,16 @@
         <v>538</v>
       </c>
       <c r="CE8" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF8" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="CG8" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="CH8" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK8" s="2" t="s">
         <v>591</v>
@@ -5029,16 +5044,16 @@
         <v>557</v>
       </c>
       <c r="CO8" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="CP8" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ8" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="CR8" s="2" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="9" spans="1:96">
@@ -5184,19 +5199,19 @@
         <v>812</v>
       </c>
       <c r="CD9" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="CE9" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF9" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="CG9" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="CH9" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK9" s="2" t="s">
         <v>592</v>
@@ -5211,16 +5226,16 @@
         <v>558</v>
       </c>
       <c r="CO9" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="CP9" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ9" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="CR9" s="2" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="10" spans="1:96">
@@ -5372,16 +5387,16 @@
         <v>538</v>
       </c>
       <c r="CE10" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF10" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="CG10" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="CH10" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK10" s="2" t="s">
         <v>593</v>
@@ -5396,16 +5411,16 @@
         <v>557</v>
       </c>
       <c r="CO10" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="CP10" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ10" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="CR10" s="2" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="11" spans="1:96">
@@ -5551,25 +5566,25 @@
         <v>774</v>
       </c>
       <c r="CB11" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="CC11" t="s">
         <v>813</v>
       </c>
       <c r="CD11" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="CE11" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF11" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="CG11" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="CH11" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK11" s="2" t="s">
         <v>594</v>
@@ -5587,13 +5602,13 @@
         <v>151</v>
       </c>
       <c r="CP11" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ11" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="CR11" s="2" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="12" spans="1:96">
@@ -5733,25 +5748,25 @@
         <v>773</v>
       </c>
       <c r="CB12" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CC12" t="s">
         <v>814</v>
       </c>
       <c r="CD12" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="CE12" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF12" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="CG12" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="CH12" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK12" s="2" t="s">
         <v>595</v>
@@ -5766,16 +5781,16 @@
         <v>560</v>
       </c>
       <c r="CO12" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="CP12" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ12" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="CR12" s="2" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="13" spans="1:96">
@@ -5924,19 +5939,19 @@
         <v>538</v>
       </c>
       <c r="CE13" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF13" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="CG13" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="CH13" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="CI13" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="CK13" s="2" t="s">
         <v>596</v>
@@ -5951,16 +5966,16 @@
         <v>557</v>
       </c>
       <c r="CO13" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="CP13" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ13" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="CR13" s="2" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="14" spans="1:96">
@@ -6112,16 +6127,16 @@
         <v>538</v>
       </c>
       <c r="CE14" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF14" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="CG14" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="CH14" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK14" s="2" t="s">
         <v>597</v>
@@ -6136,16 +6151,16 @@
         <v>557</v>
       </c>
       <c r="CO14" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="CP14" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ14" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="CR14" s="2" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="15" spans="1:96">
@@ -6282,25 +6297,25 @@
         <v>772</v>
       </c>
       <c r="CB15" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CC15" t="s">
         <v>815</v>
       </c>
       <c r="CD15" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="CE15" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF15" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="CG15" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="CH15" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK15" s="2" t="s">
         <v>598</v>
@@ -6315,16 +6330,16 @@
         <v>561</v>
       </c>
       <c r="CO15" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="CP15" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="CQ15" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="CR15" s="2" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="16" spans="1:96">
@@ -6470,28 +6485,28 @@
         <v>775</v>
       </c>
       <c r="CB16" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="CC16" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="CD16" t="s">
         <v>538</v>
       </c>
       <c r="CE16" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF16" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="CG16" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="CH16" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="CJ16" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="CK16" s="2" t="s">
         <v>599</v>
@@ -6503,19 +6518,19 @@
         <v>562</v>
       </c>
       <c r="CN16" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="CO16" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="CP16" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ16" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="CR16" s="2" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="17" spans="1:96">
@@ -6655,25 +6670,25 @@
         <v>773</v>
       </c>
       <c r="CB17" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CC17" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="CD17" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="CE17" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF17" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="CG17" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="CH17" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK17" s="2" t="s">
         <v>600</v>
@@ -6688,16 +6703,16 @@
         <v>563</v>
       </c>
       <c r="CO17" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="CP17" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ17" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="CR17" s="2" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="18" spans="1:96">
@@ -6834,25 +6849,25 @@
         <v>772</v>
       </c>
       <c r="CB18" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CC18" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="CD18" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="CE18" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF18" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="CG18" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="CH18" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK18" s="2" t="s">
         <v>601</v>
@@ -6867,16 +6882,16 @@
         <v>564</v>
       </c>
       <c r="CO18" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="CP18" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ18" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="CR18" s="2" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="19" spans="1:96">
@@ -7019,25 +7034,25 @@
         <v>773</v>
       </c>
       <c r="CB19" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CC19" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="CD19" t="s">
         <v>538</v>
       </c>
       <c r="CE19" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF19" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="CG19" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="CH19" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK19" s="2" t="s">
         <v>602</v>
@@ -7052,16 +7067,16 @@
         <v>565</v>
       </c>
       <c r="CO19" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="CP19" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ19" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="CR19" s="2" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="20" spans="1:96">
@@ -7201,25 +7216,25 @@
         <v>773</v>
       </c>
       <c r="CB20" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CC20" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="CD20" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="CE20" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF20" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="CG20" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="CH20" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK20" s="2" t="s">
         <v>603</v>
@@ -7234,16 +7249,16 @@
         <v>563</v>
       </c>
       <c r="CO20" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="CP20" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ20" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="CR20" s="2" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="21" spans="1:96">
@@ -7386,25 +7401,25 @@
         <v>773</v>
       </c>
       <c r="CB21" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CC21" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="CD21" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="CE21" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF21" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="CG21" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="CH21" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK21" s="2" t="s">
         <v>604</v>
@@ -7416,19 +7431,19 @@
         <v>566</v>
       </c>
       <c r="CN21" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="CO21" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="CP21" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ21" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="CR21" s="2" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="22" spans="1:96">
@@ -7580,16 +7595,16 @@
         <v>538</v>
       </c>
       <c r="CE22" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF22" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="CG22" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="CH22" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK22" s="2" t="s">
         <v>605</v>
@@ -7604,16 +7619,16 @@
         <v>557</v>
       </c>
       <c r="CO22" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="CP22" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ22" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="CR22" s="2" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="23" spans="1:96">
@@ -7765,16 +7780,16 @@
         <v>538</v>
       </c>
       <c r="CE23" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF23" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="CG23" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="CH23" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK23" s="2" t="s">
         <v>606</v>
@@ -7789,16 +7804,16 @@
         <v>557</v>
       </c>
       <c r="CO23" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="CP23" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ23" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="CR23" s="2" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="24" spans="1:96">
@@ -7938,25 +7953,25 @@
         <v>773</v>
       </c>
       <c r="CB24" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CC24" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="CD24" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="CE24" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF24" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="CG24" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="CH24" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK24" s="2" t="s">
         <v>607</v>
@@ -7971,16 +7986,16 @@
         <v>563</v>
       </c>
       <c r="CO24" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="CP24" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ24" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="CR24" s="2" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="25" spans="1:96">
@@ -8120,25 +8135,25 @@
         <v>773</v>
       </c>
       <c r="CB25" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CC25" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="CD25" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="CE25" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF25" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="CG25" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="CH25" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK25" s="2" t="s">
         <v>608</v>
@@ -8153,16 +8168,16 @@
         <v>563</v>
       </c>
       <c r="CO25" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="CP25" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ25" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="CR25" s="2" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="26" spans="1:96">
@@ -8308,25 +8323,25 @@
         <v>773</v>
       </c>
       <c r="CB26" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CC26" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="CD26" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="CE26" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF26" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="CG26" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="CH26" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK26" s="2" t="s">
         <v>609</v>
@@ -8341,16 +8356,16 @@
         <v>567</v>
       </c>
       <c r="CO26" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="CP26" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ26" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="CR26" s="2" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="27" spans="1:96">
@@ -8499,16 +8514,16 @@
         <v>538</v>
       </c>
       <c r="CE27" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF27" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="CG27" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="CH27" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK27" s="2" t="s">
         <v>610</v>
@@ -8523,16 +8538,16 @@
         <v>557</v>
       </c>
       <c r="CO27" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="CP27" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ27" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="CR27" s="2" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="28" spans="1:96">
@@ -8669,25 +8684,25 @@
         <v>772</v>
       </c>
       <c r="CB28" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CC28" t="s">
         <v>815</v>
       </c>
       <c r="CD28" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="CE28" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF28" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="CG28" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="CH28" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK28" s="2" t="s">
         <v>611</v>
@@ -8702,16 +8717,16 @@
         <v>561</v>
       </c>
       <c r="CO28" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="CP28" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="CQ28" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="CR28" s="2" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="29" spans="1:96">
@@ -8851,25 +8866,25 @@
         <v>773</v>
       </c>
       <c r="CB29" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CC29" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="CD29" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="CE29" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF29" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="CG29" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="CH29" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK29" s="2" t="s">
         <v>612</v>
@@ -8884,16 +8899,16 @@
         <v>568</v>
       </c>
       <c r="CO29" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="CP29" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ29" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="CR29" s="2" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="30" spans="1:96">
@@ -9033,28 +9048,28 @@
         <v>773</v>
       </c>
       <c r="CB30" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CC30" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="CD30" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="CE30" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF30" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="CG30" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="CH30" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="CI30" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="CK30" s="2" t="s">
         <v>613</v>
@@ -9069,16 +9084,16 @@
         <v>569</v>
       </c>
       <c r="CO30" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="CP30" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ30" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="CR30" s="2" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="31" spans="1:96">
@@ -9227,16 +9242,16 @@
         <v>538</v>
       </c>
       <c r="CE31" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF31" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="CG31" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="CH31" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK31" s="2" t="s">
         <v>614</v>
@@ -9251,16 +9266,16 @@
         <v>557</v>
       </c>
       <c r="CO31" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="CP31" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ31" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="CR31" s="2" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="32" spans="1:96">
@@ -9403,25 +9418,25 @@
         <v>773</v>
       </c>
       <c r="CB32" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CC32" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="CD32" t="s">
         <v>538</v>
       </c>
       <c r="CE32" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF32" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="CG32" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="CH32" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK32" s="2" t="s">
         <v>615</v>
@@ -9436,16 +9451,16 @@
         <v>565</v>
       </c>
       <c r="CO32" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="CP32" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ32" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="CR32" s="2" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="33" spans="1:96">
@@ -9582,28 +9597,28 @@
         <v>772</v>
       </c>
       <c r="CB33" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CC33" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="CD33" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="CE33" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF33" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="CG33" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="CH33" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="CI33" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="CK33" s="2" t="s">
         <v>616</v>
@@ -9618,16 +9633,16 @@
         <v>570</v>
       </c>
       <c r="CO33" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="CP33" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ33" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
       <c r="CR33" s="2" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="34" spans="1:96">
@@ -9770,25 +9785,25 @@
         <v>774</v>
       </c>
       <c r="CB34" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CC34" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="CD34" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="CE34" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF34" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="CG34" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="CH34" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK34" s="2" t="s">
         <v>617</v>
@@ -9803,16 +9818,16 @@
         <v>571</v>
       </c>
       <c r="CO34" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="CP34" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ34" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="CR34" s="2" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="35" spans="1:96">
@@ -9955,25 +9970,25 @@
         <v>773</v>
       </c>
       <c r="CB35" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CC35" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="CD35" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="CE35" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF35" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="CG35" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="CH35" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK35" s="2" t="s">
         <v>618</v>
@@ -9988,16 +10003,16 @@
         <v>572</v>
       </c>
       <c r="CO35" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="CP35" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ35" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="CR35" s="2" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="36" spans="1:96">
@@ -10140,25 +10155,25 @@
         <v>773</v>
       </c>
       <c r="CB36" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CC36" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="CD36" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="CE36" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF36" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="CG36" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="CH36" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK36" s="2" t="s">
         <v>619</v>
@@ -10173,16 +10188,16 @@
         <v>573</v>
       </c>
       <c r="CO36" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="CP36" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ36" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="CR36" s="2" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="37" spans="1:96">
@@ -10334,16 +10349,16 @@
         <v>538</v>
       </c>
       <c r="CE37" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF37" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="CG37" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="CH37" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK37" s="2" t="s">
         <v>620</v>
@@ -10358,16 +10373,16 @@
         <v>557</v>
       </c>
       <c r="CO37" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="CP37" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ37" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="CR37" s="2" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="38" spans="1:96">
@@ -10501,25 +10516,25 @@
         <v>774</v>
       </c>
       <c r="CB38" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CC38" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
       <c r="CD38" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="CE38" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF38" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="CG38" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="CH38" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK38" s="2" t="s">
         <v>621</v>
@@ -10534,16 +10549,16 @@
         <v>574</v>
       </c>
       <c r="CO38" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
       <c r="CP38" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ38" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="CR38" s="2" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="39" spans="1:96">
@@ -10677,25 +10692,25 @@
         <v>773</v>
       </c>
       <c r="CB39" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CC39" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
       <c r="CD39" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="CE39" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF39" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="CG39" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="CH39" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK39" s="2" t="s">
         <v>622</v>
@@ -10710,16 +10725,16 @@
         <v>575</v>
       </c>
       <c r="CO39" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="CP39" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ39" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="CR39" s="2" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="40" spans="1:96">
@@ -10859,25 +10874,25 @@
         <v>773</v>
       </c>
       <c r="CB40" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CC40" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="CD40" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="CE40" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF40" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="CG40" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="CH40" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK40" s="2" t="s">
         <v>623</v>
@@ -10892,16 +10907,16 @@
         <v>576</v>
       </c>
       <c r="CO40" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="CP40" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ40" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="CR40" s="2" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="41" spans="1:96">
@@ -11029,25 +11044,28 @@
         <v>774</v>
       </c>
       <c r="CB41" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CC41" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="CD41" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="CE41" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF41" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="CG41" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="CH41" t="s">
-        <v>916</v>
+        <v>920</v>
+      </c>
+      <c r="CK41" s="2" t="s">
+        <v>927</v>
       </c>
       <c r="CL41" t="s">
         <v>169</v>
@@ -11059,16 +11077,16 @@
         <v>577</v>
       </c>
       <c r="CO41" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="CP41" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ41" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="CR41" s="2" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="42" spans="1:96">
@@ -11205,25 +11223,25 @@
         <v>773</v>
       </c>
       <c r="CB42" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CC42" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="CD42" t="s">
         <v>538</v>
       </c>
       <c r="CE42" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF42" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="CG42" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="CH42" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK42" s="2" t="s">
         <v>624</v>
@@ -11238,16 +11256,16 @@
         <v>578</v>
       </c>
       <c r="CO42" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="CP42" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ42" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="CR42" s="2" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="43" spans="1:96">
@@ -11384,25 +11402,25 @@
         <v>773</v>
       </c>
       <c r="CB43" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CC43" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="CD43" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="CE43" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF43" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="CG43" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="CH43" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK43" s="2" t="s">
         <v>625</v>
@@ -11414,19 +11432,19 @@
         <v>579</v>
       </c>
       <c r="CN43" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="CO43" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="CP43" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ43" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="CR43" s="2" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="44" spans="1:96">
@@ -11560,25 +11578,25 @@
         <v>772</v>
       </c>
       <c r="CB44" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="CC44" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="CD44" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="CE44" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF44" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="CG44" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="CH44" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK44" s="2" t="s">
         <v>626</v>
@@ -11590,19 +11608,19 @@
         <v>580</v>
       </c>
       <c r="CN44" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="CO44" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="CP44" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ44" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="CR44" s="2" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="45" spans="1:96">
@@ -11742,22 +11760,22 @@
         <v>803</v>
       </c>
       <c r="CC45" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="CD45" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="CE45" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF45" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="CG45" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="CH45" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK45" s="2" t="s">
         <v>627</v>
@@ -11772,16 +11790,16 @@
         <v>581</v>
       </c>
       <c r="CO45" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="CP45" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ45" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="CR45" s="2" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="46" spans="1:96">
@@ -11924,22 +11942,22 @@
         <v>804</v>
       </c>
       <c r="CC46" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="CD46" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="CE46" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF46" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="CG46" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="CH46" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK46" s="2" t="s">
         <v>628</v>
@@ -11954,16 +11972,16 @@
         <v>582</v>
       </c>
       <c r="CO46" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="CP46" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ46" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="CR46" s="2" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="47" spans="1:96">
@@ -12106,22 +12124,22 @@
         <v>804</v>
       </c>
       <c r="CC47" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="CD47" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="CE47" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF47" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="CG47" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="CH47" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK47" s="2" t="s">
         <v>629</v>
@@ -12136,16 +12154,16 @@
         <v>582</v>
       </c>
       <c r="CO47" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="CP47" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ47" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="CR47" s="2" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="48" spans="1:96">
@@ -12285,22 +12303,22 @@
         <v>805</v>
       </c>
       <c r="CC48" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="CD48" t="s">
         <v>538</v>
       </c>
       <c r="CE48" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="CF48" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="CG48" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="CH48" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="CK48" s="2" t="s">
         <v>630</v>
@@ -12315,16 +12333,16 @@
         <v>583</v>
       </c>
       <c r="CO48" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="CP48" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="CQ48" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="CR48" s="2" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
     </row>
   </sheetData>
@@ -12446,28 +12464,29 @@
     <hyperlink ref="AH40" r:id="rId115"/>
     <hyperlink ref="CK40" r:id="rId116"/>
     <hyperlink ref="CR40" r:id="rId117"/>
-    <hyperlink ref="CR41" r:id="rId118"/>
-    <hyperlink ref="AH42" r:id="rId119"/>
-    <hyperlink ref="CK42" r:id="rId120"/>
-    <hyperlink ref="CR42" r:id="rId121"/>
-    <hyperlink ref="AH43" r:id="rId122"/>
-    <hyperlink ref="CK43" r:id="rId123"/>
-    <hyperlink ref="CR43" r:id="rId124"/>
-    <hyperlink ref="AH44" r:id="rId125"/>
-    <hyperlink ref="CK44" r:id="rId126"/>
-    <hyperlink ref="CR44" r:id="rId127"/>
-    <hyperlink ref="AH45" r:id="rId128"/>
-    <hyperlink ref="CK45" r:id="rId129"/>
-    <hyperlink ref="CR45" r:id="rId130"/>
-    <hyperlink ref="AH46" r:id="rId131"/>
-    <hyperlink ref="CK46" r:id="rId132"/>
-    <hyperlink ref="CR46" r:id="rId133"/>
-    <hyperlink ref="AH47" r:id="rId134"/>
-    <hyperlink ref="CK47" r:id="rId135"/>
-    <hyperlink ref="CR47" r:id="rId136"/>
-    <hyperlink ref="AH48" r:id="rId137"/>
-    <hyperlink ref="CK48" r:id="rId138"/>
-    <hyperlink ref="CR48" r:id="rId139"/>
+    <hyperlink ref="CK41" r:id="rId118"/>
+    <hyperlink ref="CR41" r:id="rId119"/>
+    <hyperlink ref="AH42" r:id="rId120"/>
+    <hyperlink ref="CK42" r:id="rId121"/>
+    <hyperlink ref="CR42" r:id="rId122"/>
+    <hyperlink ref="AH43" r:id="rId123"/>
+    <hyperlink ref="CK43" r:id="rId124"/>
+    <hyperlink ref="CR43" r:id="rId125"/>
+    <hyperlink ref="AH44" r:id="rId126"/>
+    <hyperlink ref="CK44" r:id="rId127"/>
+    <hyperlink ref="CR44" r:id="rId128"/>
+    <hyperlink ref="AH45" r:id="rId129"/>
+    <hyperlink ref="CK45" r:id="rId130"/>
+    <hyperlink ref="CR45" r:id="rId131"/>
+    <hyperlink ref="AH46" r:id="rId132"/>
+    <hyperlink ref="CK46" r:id="rId133"/>
+    <hyperlink ref="CR46" r:id="rId134"/>
+    <hyperlink ref="AH47" r:id="rId135"/>
+    <hyperlink ref="CK47" r:id="rId136"/>
+    <hyperlink ref="CR47" r:id="rId137"/>
+    <hyperlink ref="AH48" r:id="rId138"/>
+    <hyperlink ref="CK48" r:id="rId139"/>
+    <hyperlink ref="CR48" r:id="rId140"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/temp_qc_domain_output.xlsx
+++ b/temp_qc_domain_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="147">
   <si>
     <t>Id</t>
   </si>
@@ -253,18 +253,6 @@
     <t>Data Source</t>
   </si>
   <si>
-    <t>discovered_employees</t>
-  </si>
-  <si>
-    <t>discovered_revenue</t>
-  </si>
-  <si>
-    <t>discovered_industry</t>
-  </si>
-  <si>
-    <t>flagged_rpe</t>
-  </si>
-  <si>
     <t>email_status_Classification</t>
   </si>
   <si>
@@ -274,6 +262,12 @@
     <t>Reason_for_domain_mismatch_mail</t>
   </si>
   <si>
+    <t>WorkPhone_Reason</t>
+  </si>
+  <si>
+    <t>WorkPhone_ColorFlag</t>
+  </si>
+  <si>
     <t>linkedin_link_found</t>
   </si>
   <si>
@@ -445,16 +439,10 @@
     <t>133</t>
   </si>
   <si>
-    <t>44 employees</t>
-  </si>
-  <si>
-    <t>Truck Transportation</t>
+    <t>Match</t>
   </si>
   <si>
     <t>False</t>
-  </si>
-  <si>
-    <t>Match</t>
   </si>
   <si>
     <t>Hansen &amp; Adkins - Transportation service in Los Alamitos, California</t>
@@ -837,13 +825,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP2"/>
+  <dimension ref="A1:CN2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:94">
+    <row r="1" spans="1:92">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1120,212 +1108,200 @@
       <c r="CN1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:92">
+      <c r="A2" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="B2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:94">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>95</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>96</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>97</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" t="s">
         <v>98</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>99</v>
       </c>
-      <c r="G2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>100</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>101</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>102</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>103</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>104</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>105</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>106</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>107</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>108</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>109</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>110</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>111</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>112</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>113</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>114</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>115</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>116</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>117</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AJ2" t="s">
         <v>119</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AK2" t="s">
         <v>120</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AN2" t="s">
         <v>121</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AO2" t="s">
         <v>122</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>123</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU2" t="s">
         <v>124</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AV2" t="s">
         <v>125</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AU2" t="s">
+      <c r="AW2" t="s">
         <v>126</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AX2" t="s">
         <v>127</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AY2" t="s">
         <v>128</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BB2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC2" t="s">
         <v>129</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BD2" t="s">
         <v>130</v>
       </c>
-      <c r="BB2" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC2" t="s">
+      <c r="BE2" t="s">
         <v>131</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BF2" t="s">
         <v>132</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BI2" t="s">
         <v>133</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BN2" t="s">
         <v>134</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BO2" t="s">
         <v>135</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BP2" t="s">
         <v>136</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BQ2" t="s">
         <v>137</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BT2" t="s">
         <v>138</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BY2" t="s">
         <v>139</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BZ2" t="s">
         <v>140</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CB2" t="s">
         <v>141</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CF2" t="s">
         <v>142</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CG2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>116</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>116</v>
+      </c>
+      <c r="CK2" t="s">
         <v>143</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CL2" t="s">
         <v>144</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CM2" t="s">
         <v>145</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CN2" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="CI2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>118</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>118</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>147</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>148</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>149</v>
-      </c>
-      <c r="CP2" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AH2" r:id="rId1"/>
-    <hyperlink ref="CI2" r:id="rId2"/>
-    <hyperlink ref="CP2" r:id="rId3"/>
+    <hyperlink ref="CG2" r:id="rId2"/>
+    <hyperlink ref="CN2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
